--- a/Allele.xlsx
+++ b/Allele.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Allele"/>
   </sheets>
   <definedNames>
-    <definedName name="Allele">'Allele'!$A$1:$T$145</definedName>
+    <definedName name="Allele">'Allele'!$A$1:$U$147</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -384,70 +384,75 @@
       </c>
       <c r="G1" s="0" t="inlineStr">
         <is>
+          <t>Targeted</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
           <t>ChromosomeID</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="I1" s="0" t="inlineStr">
         <is>
           <t>Start</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="J1" s="0" t="inlineStr">
         <is>
           <t>End</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="K1" s="0" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="L1" s="0" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="M1" s="0" t="inlineStr">
         <is>
           <t>Locus</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="N1" s="0" t="inlineStr">
         <is>
           <t>AlleleNote</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="O1" s="0" t="inlineStr">
         <is>
           <t>FwdConfPrimer</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr">
+      <c r="P1" s="0" t="inlineStr">
         <is>
           <t>RevConfPrimer</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>SeqConfPrimer</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>WtLength</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>MutLength</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>PlasmidUsed</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>Distance</t>
         </is>
@@ -477,30 +482,38 @@
           <t>adhE*</t>
         </is>
       </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="G2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>P704L and H734R mutations in adhE</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
         <is>
           <t>XD520</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
+      <c r="P2" s="0" t="inlineStr">
         <is>
           <t>XD521</t>
         </is>
       </c>
-      <c r="P2" s="0" t="inlineStr">
+      <c r="Q2" s="0" t="inlineStr">
         <is>
           <t>XD520</t>
         </is>
       </c>
-      <c r="Q2" s="0">
+      <c r="R2" s="0">
         <v>982</v>
       </c>
-      <c r="R2" s="0">
+      <c r="S2" s="0">
         <v>982</v>
       </c>
     </row>
@@ -528,37 +541,40 @@
           <t>∆adhE</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G3" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
           <t>2096221</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="J3" s="0" t="inlineStr">
         <is>
           <t>2098578</t>
         </is>
       </c>
-      <c r="J3" s="0" t="inlineStr">
+      <c r="K3" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="M3" s="0" t="inlineStr">
         <is>
           <t>adhE</t>
         </is>
       </c>
-      <c r="M3" s="0" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Jon Lo</t>
         </is>
       </c>
-      <c r="T3" s="0">
+      <c r="U3" s="0">
         <v>2357</v>
       </c>
     </row>
@@ -586,37 +602,40 @@
           <t>adhE D494G</t>
         </is>
       </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G4" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
           <t>	2097217</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="J4" s="0" t="inlineStr">
         <is>
           <t>	2097217</t>
         </is>
       </c>
-      <c r="J4" s="0" t="inlineStr">
+      <c r="K4" s="0" t="inlineStr">
         <is>
           <t>SNV</t>
         </is>
       </c>
-      <c r="K4" s="0" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>T --&gt; C, Asp494Gly</t>
         </is>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="M4" s="0" t="inlineStr">
         <is>
           <t>adhE</t>
         </is>
       </c>
-      <c r="T4" s="0">
+      <c r="U4" s="0">
         <v>0</v>
       </c>
     </row>
@@ -644,12 +663,15 @@
           <t>∆ech</t>
         </is>
       </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="inlineStr">
+      <c r="G5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Shital Tripathi</t>
         </is>
@@ -679,58 +701,61 @@
           <t>∆ech</t>
         </is>
       </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G6" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
           <t>622252</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="J6" s="0" t="inlineStr">
         <is>
           <t>633132</t>
         </is>
       </c>
-      <c r="J6" s="0" t="inlineStr">
+      <c r="K6" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="M6" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0564-Clo1313_0575</t>
         </is>
       </c>
-      <c r="M6" s="0" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>ech hydrogenase, Adam Guss</t>
         </is>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="O6" s="0" t="inlineStr">
         <is>
           <t>XD515</t>
         </is>
       </c>
-      <c r="O6" s="0" t="inlineStr">
+      <c r="P6" s="0" t="inlineStr">
         <is>
           <t>XD516</t>
         </is>
       </c>
-      <c r="Q6" s="0">
+      <c r="R6" s="0">
         <v>14158</v>
       </c>
-      <c r="R6" s="0">
+      <c r="S6" s="0">
         <v>3281</v>
       </c>
-      <c r="S6" s="0" t="inlineStr">
+      <c r="T6" s="0" t="inlineStr">
         <is>
           <t>pAMG275</t>
         </is>
       </c>
-      <c r="T6" s="0">
+      <c r="U6" s="0">
         <v>10880</v>
       </c>
     </row>
@@ -758,32 +783,35 @@
           <t>∆hfs::PgapD-cat</t>
         </is>
       </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G7" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
           <t>2091732</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
+      <c r="J7" s="0" t="inlineStr">
         <is>
           <t>2095302</t>
         </is>
       </c>
-      <c r="J7" s="0" t="inlineStr">
+      <c r="K7" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K7" s="0" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>PgapDH-cat</t>
         </is>
       </c>
-      <c r="T7" s="0">
+      <c r="U7" s="0">
         <v>3570</v>
       </c>
     </row>
@@ -806,63 +834,66 @@
           <t>∆hpt</t>
         </is>
       </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G8" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
           <t>3435261</t>
         </is>
       </c>
-      <c r="I8" s="0" t="inlineStr">
+      <c r="J8" s="0" t="inlineStr">
         <is>
           <t>3435739</t>
         </is>
       </c>
-      <c r="J8" s="0" t="inlineStr">
+      <c r="K8" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="M8" s="0" t="inlineStr">
         <is>
           <t>hpt</t>
         </is>
       </c>
-      <c r="M8" s="0" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>hypoxanthine phosphoribosyltransferase, used for 8AZH counter-selection</t>
         </is>
       </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="O8" s="0" t="inlineStr">
         <is>
           <t>XD513</t>
         </is>
       </c>
-      <c r="O8" s="0" t="inlineStr">
+      <c r="P8" s="0" t="inlineStr">
         <is>
           <t>XD514</t>
         </is>
       </c>
-      <c r="P8" s="0" t="inlineStr">
+      <c r="Q8" s="0" t="inlineStr">
         <is>
           <t>XD497</t>
         </is>
       </c>
-      <c r="Q8" s="0">
+      <c r="R8" s="0">
         <v>3207</v>
       </c>
-      <c r="R8" s="0">
+      <c r="S8" s="0">
         <v>2727</v>
       </c>
-      <c r="S8" s="0" t="inlineStr">
+      <c r="T8" s="0" t="inlineStr">
         <is>
           <t>pMU1657</t>
         </is>
       </c>
-      <c r="T8" s="0">
+      <c r="U8" s="0">
         <v>478</v>
       </c>
     </row>
@@ -890,7 +921,10 @@
           <t>∆hpt::adhB(Teth)</t>
         </is>
       </c>
-      <c r="G9" s="0" t="inlineStr">
+      <c r="G9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>NC_017304.1</t>
         </is>
@@ -920,7 +954,10 @@
           <t>∆hpt::adhE(Tsc)</t>
         </is>
       </c>
-      <c r="G10" s="0" t="inlineStr">
+      <c r="G10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>NC_017304.1</t>
         </is>
@@ -950,63 +987,66 @@
           <t>∆hydG</t>
         </is>
       </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G11" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
           <t>1830797</t>
         </is>
       </c>
-      <c r="I11" s="0" t="inlineStr">
+      <c r="J11" s="0" t="inlineStr">
         <is>
           <t>1832186</t>
         </is>
       </c>
-      <c r="J11" s="0" t="inlineStr">
+      <c r="K11" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="M11" s="0" t="inlineStr">
         <is>
           <t>hydG</t>
         </is>
       </c>
-      <c r="M11" s="0" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>hydrogenase maturation protein</t>
         </is>
       </c>
-      <c r="N11" s="0" t="inlineStr">
+      <c r="O11" s="0" t="inlineStr">
         <is>
           <t>XD502</t>
         </is>
       </c>
-      <c r="O11" s="0" t="inlineStr">
+      <c r="P11" s="0" t="inlineStr">
         <is>
           <t>XD503</t>
         </is>
       </c>
-      <c r="P11" s="0" t="inlineStr">
+      <c r="Q11" s="0" t="inlineStr">
         <is>
           <t>XD504</t>
         </is>
       </c>
-      <c r="Q11" s="0">
+      <c r="R11" s="0">
         <v>4268</v>
       </c>
-      <c r="R11" s="0">
+      <c r="S11" s="0">
         <v>2874</v>
       </c>
-      <c r="S11" s="0" t="inlineStr">
+      <c r="T11" s="0" t="inlineStr">
         <is>
           <t>AMG758, aka pAMG278</t>
         </is>
       </c>
-      <c r="T11" s="0">
+      <c r="U11" s="0">
         <v>1389</v>
       </c>
     </row>
@@ -1034,63 +1074,66 @@
           <t>∆ldh</t>
         </is>
       </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G12" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
           <t>1380740</t>
         </is>
       </c>
-      <c r="I12" s="0" t="inlineStr">
+      <c r="J12" s="0" t="inlineStr">
         <is>
           <t>1381579</t>
         </is>
       </c>
-      <c r="J12" s="0" t="inlineStr">
+      <c r="K12" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="M12" s="0" t="inlineStr">
         <is>
           <t>ldh</t>
         </is>
       </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Aaron Argyros, Mascoma</t>
         </is>
       </c>
-      <c r="N12" s="0" t="inlineStr">
+      <c r="O12" s="0" t="inlineStr">
         <is>
           <t>XD498</t>
         </is>
       </c>
-      <c r="O12" s="0" t="inlineStr">
+      <c r="P12" s="0" t="inlineStr">
         <is>
           <t>XD499</t>
         </is>
       </c>
-      <c r="P12" s="0" t="inlineStr">
+      <c r="Q12" s="0" t="inlineStr">
         <is>
           <t>XD500</t>
         </is>
       </c>
-      <c r="Q12" s="0">
+      <c r="R12" s="0">
         <v>3144</v>
       </c>
-      <c r="R12" s="0">
+      <c r="S12" s="0">
         <v>2301</v>
       </c>
-      <c r="S12" s="0" t="inlineStr">
+      <c r="T12" s="0" t="inlineStr">
         <is>
           <t>pMU1758</t>
         </is>
       </c>
-      <c r="T12" s="0">
+      <c r="U12" s="0">
         <v>839</v>
       </c>
     </row>
@@ -1113,35 +1156,38 @@
           <t>∆ldh::erm</t>
         </is>
       </c>
-      <c r="G13" s="0" t="inlineStr">
+      <c r="G13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="M13" s="0" t="inlineStr">
         <is>
           <t>Tsac_0179</t>
         </is>
       </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>XD618 is Mascoma X01177, XD619 is Mascoma X01178</t>
         </is>
       </c>
-      <c r="N13" s="0" t="inlineStr">
+      <c r="O13" s="0" t="inlineStr">
         <is>
           <t>XD618</t>
         </is>
       </c>
-      <c r="O13" s="0" t="inlineStr">
+      <c r="P13" s="0" t="inlineStr">
         <is>
           <t>XD619</t>
         </is>
       </c>
-      <c r="Q13" s="0">
+      <c r="R13" s="0">
         <v>3863</v>
       </c>
-      <c r="S13" s="0" t="inlineStr">
+      <c r="T13" s="0" t="inlineStr">
         <is>
           <t>pSGD9</t>
         </is>
@@ -1171,12 +1217,15 @@
           <t>∆ldh</t>
         </is>
       </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
+      <c r="G14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Adam Guss (identical to allele 11)</t>
         </is>
@@ -1201,53 +1250,56 @@
           <t>∆ldh</t>
         </is>
       </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="G15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="I15" s="0" t="inlineStr">
         <is>
           <t>190603</t>
         </is>
       </c>
-      <c r="I15" s="0" t="inlineStr">
+      <c r="J15" s="0" t="inlineStr">
         <is>
           <t>191834</t>
         </is>
       </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="M15" s="0" t="inlineStr">
         <is>
           <t>Tsac_0179</t>
         </is>
       </c>
-      <c r="M15" s="0" t="inlineStr">
+      <c r="N15" s="0" t="inlineStr">
         <is>
           <t>XD618 is Mascoma X01177, XD619 is Mascoma X01178</t>
         </is>
       </c>
-      <c r="N15" s="0" t="inlineStr">
+      <c r="O15" s="0" t="inlineStr">
         <is>
           <t>XD618</t>
         </is>
       </c>
-      <c r="O15" s="0" t="inlineStr">
+      <c r="P15" s="0" t="inlineStr">
         <is>
           <t>XD619</t>
         </is>
       </c>
-      <c r="Q15" s="0">
+      <c r="R15" s="0">
         <v>3863</v>
       </c>
-      <c r="R15" s="0">
+      <c r="S15" s="0">
         <v>2631</v>
       </c>
-      <c r="S15" s="0" t="inlineStr">
+      <c r="T15" s="0" t="inlineStr">
         <is>
           <t>pMU424</t>
         </is>
       </c>
-      <c r="T15" s="0">
+      <c r="U15" s="0">
         <v>1231</v>
       </c>
     </row>
@@ -1275,63 +1327,66 @@
           <t>∆ldh::Peno-pyk(Tsc)</t>
         </is>
       </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G16" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
           <t>1380680</t>
         </is>
       </c>
-      <c r="I16" s="0" t="inlineStr">
+      <c r="J16" s="0" t="inlineStr">
         <is>
           <t>1381633</t>
         </is>
       </c>
-      <c r="J16" s="0" t="inlineStr">
+      <c r="K16" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K16" s="0" t="inlineStr">
+      <c r="L16" s="0" t="inlineStr">
         <is>
           <t>Peno-pyk(Tsc)</t>
         </is>
       </c>
-      <c r="M16" s="0" t="inlineStr">
+      <c r="N16" s="0" t="inlineStr">
         <is>
           <t>Dan Olson</t>
         </is>
       </c>
-      <c r="N16" s="0" t="inlineStr">
+      <c r="O16" s="0" t="inlineStr">
         <is>
           <t>XD498</t>
         </is>
       </c>
-      <c r="O16" s="0" t="inlineStr">
+      <c r="P16" s="0" t="inlineStr">
         <is>
           <t>XD499</t>
         </is>
       </c>
-      <c r="P16" s="0" t="inlineStr">
+      <c r="Q16" s="0" t="inlineStr">
         <is>
           <t>XD500</t>
         </is>
       </c>
-      <c r="Q16" s="0">
+      <c r="R16" s="0">
         <v>3144</v>
       </c>
-      <c r="R16" s="0">
+      <c r="S16" s="0">
         <v>4231</v>
       </c>
-      <c r="S16" s="0" t="inlineStr">
+      <c r="T16" s="0" t="inlineStr">
         <is>
           <t>pDGO-06</t>
         </is>
       </c>
-      <c r="T16" s="0">
+      <c r="U16" s="0">
         <v>953</v>
       </c>
     </row>
@@ -1359,38 +1414,41 @@
           <t>∆me</t>
         </is>
       </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
+      <c r="G17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
         <is>
           <t>Yu Deng</t>
         </is>
       </c>
-      <c r="N17" s="0" t="inlineStr">
+      <c r="O17" s="0" t="inlineStr">
         <is>
           <t>XD493</t>
         </is>
       </c>
-      <c r="O17" s="0" t="inlineStr">
+      <c r="P17" s="0" t="inlineStr">
         <is>
           <t>XD494</t>
         </is>
       </c>
-      <c r="P17" s="0" t="inlineStr">
+      <c r="Q17" s="0" t="inlineStr">
         <is>
           <t>XD501</t>
         </is>
       </c>
-      <c r="Q17" s="0">
+      <c r="R17" s="0">
         <v>2865</v>
       </c>
-      <c r="R17" s="0">
+      <c r="S17" s="0">
         <v>1519</v>
       </c>
-      <c r="S17" s="0" t="inlineStr">
+      <c r="T17" s="0" t="inlineStr">
         <is>
           <t>pYD03</t>
         </is>
@@ -1420,58 +1478,61 @@
           <t>∆me-mdh</t>
         </is>
       </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G18" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
           <t>2196273</t>
         </is>
       </c>
-      <c r="I18" s="0" t="inlineStr">
+      <c r="J18" s="0" t="inlineStr">
         <is>
           <t>2197028</t>
         </is>
       </c>
-      <c r="J18" s="0" t="inlineStr">
+      <c r="K18" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L18" s="0" t="inlineStr">
+      <c r="M18" s="0" t="inlineStr">
         <is>
           <t>Malate dehydrogenase-Clo1313_1879</t>
         </is>
       </c>
-      <c r="M18" s="0" t="inlineStr">
+      <c r="N18" s="0" t="inlineStr">
         <is>
           <t>Jilai Zhou</t>
         </is>
       </c>
-      <c r="N18" s="0" t="inlineStr">
+      <c r="O18" s="0" t="inlineStr">
         <is>
           <t>XD493</t>
         </is>
       </c>
-      <c r="O18" s="0" t="inlineStr">
+      <c r="P18" s="0" t="inlineStr">
         <is>
           <t>XD494</t>
         </is>
       </c>
-      <c r="P18" s="0" t="inlineStr">
+      <c r="Q18" s="0" t="inlineStr">
         <is>
           <t>XD501</t>
         </is>
       </c>
-      <c r="Q18" s="0">
+      <c r="R18" s="0">
         <v>2865</v>
       </c>
-      <c r="R18" s="0">
+      <c r="S18" s="0">
         <v>2108</v>
       </c>
-      <c r="T18" s="0">
+      <c r="U18" s="0">
         <v>755</v>
       </c>
     </row>
@@ -1499,42 +1560,45 @@
           <t>∆nfnAB</t>
         </is>
       </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G19" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
           <t>2159272</t>
         </is>
       </c>
-      <c r="I19" s="0" t="inlineStr">
+      <c r="J19" s="0" t="inlineStr">
         <is>
           <t>2161501</t>
         </is>
       </c>
-      <c r="J19" s="0" t="inlineStr">
+      <c r="K19" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L19" s="0" t="inlineStr">
+      <c r="M19" s="0" t="inlineStr">
         <is>
           <t>nfnA-nfnB</t>
         </is>
       </c>
-      <c r="M19" s="0" t="inlineStr">
+      <c r="N19" s="0" t="inlineStr">
         <is>
           <t>Jon Lo</t>
         </is>
       </c>
-      <c r="S19" s="0" t="inlineStr">
+      <c r="T19" s="0" t="inlineStr">
         <is>
           <t>pJLo13</t>
         </is>
       </c>
-      <c r="T19" s="0">
+      <c r="U19" s="0">
         <v>2229</v>
       </c>
     </row>
@@ -1562,53 +1626,56 @@
           <t>∆pfl</t>
         </is>
       </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G20" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
           <t>2010692</t>
         </is>
       </c>
-      <c r="I20" s="0" t="inlineStr">
+      <c r="J20" s="0" t="inlineStr">
         <is>
           <t>2013699</t>
         </is>
       </c>
-      <c r="J20" s="0" t="inlineStr">
+      <c r="K20" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L20" s="0" t="inlineStr">
+      <c r="M20" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1716-pfl</t>
         </is>
       </c>
-      <c r="N20" s="0" t="inlineStr">
+      <c r="O20" s="0" t="inlineStr">
         <is>
           <t>XD517</t>
         </is>
       </c>
-      <c r="O20" s="0" t="inlineStr">
+      <c r="P20" s="0" t="inlineStr">
         <is>
           <t>XD518</t>
         </is>
       </c>
-      <c r="P20" s="0" t="inlineStr">
+      <c r="Q20" s="0" t="inlineStr">
         <is>
           <t>XD519</t>
         </is>
       </c>
-      <c r="Q20" s="0">
+      <c r="R20" s="0">
         <v>5799</v>
       </c>
-      <c r="R20" s="0">
+      <c r="S20" s="0">
         <v>2792</v>
       </c>
-      <c r="T20" s="0">
+      <c r="U20" s="0">
         <v>3007</v>
       </c>
     </row>
@@ -1631,33 +1698,36 @@
           <t>∆pfor::(pta ack kan)</t>
         </is>
       </c>
-      <c r="G21" s="0" t="inlineStr">
+      <c r="G21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
       </c>
-      <c r="M21" s="0" t="inlineStr">
+      <c r="N21" s="0" t="inlineStr">
         <is>
           <t>Jilai Zhou, seems to be the same flanks as pZJ11</t>
         </is>
       </c>
-      <c r="N21" s="0" t="inlineStr">
+      <c r="O21" s="0" t="inlineStr">
         <is>
           <t>JP139</t>
         </is>
       </c>
-      <c r="O21" s="0" t="inlineStr">
+      <c r="P21" s="0" t="inlineStr">
         <is>
           <t>JP140</t>
         </is>
       </c>
-      <c r="Q21" s="0">
+      <c r="R21" s="0">
         <v>3962</v>
       </c>
-      <c r="R21" s="0">
+      <c r="S21" s="0">
         <v>4856</v>
       </c>
-      <c r="S21" s="0" t="inlineStr">
+      <c r="T21" s="0" t="inlineStr">
         <is>
           <t>pZJ13</t>
         </is>
@@ -1687,63 +1757,66 @@
           <t>∆ppdk</t>
         </is>
       </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G22" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
           <t>1104800</t>
         </is>
       </c>
-      <c r="I22" s="0" t="inlineStr">
+      <c r="J22" s="0" t="inlineStr">
         <is>
           <t>1107289</t>
         </is>
       </c>
-      <c r="J22" s="0" t="inlineStr">
+      <c r="K22" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L22" s="0" t="inlineStr">
+      <c r="M22" s="0" t="inlineStr">
         <is>
           <t>ppdk</t>
         </is>
       </c>
-      <c r="M22" s="0" t="inlineStr">
+      <c r="N22" s="0" t="inlineStr">
         <is>
           <t>Jilai Zhou</t>
         </is>
       </c>
-      <c r="N22" s="0" t="inlineStr">
+      <c r="O22" s="0" t="inlineStr">
         <is>
           <t>XD527</t>
         </is>
       </c>
-      <c r="O22" s="0" t="inlineStr">
+      <c r="P22" s="0" t="inlineStr">
         <is>
           <t>XD528</t>
         </is>
       </c>
-      <c r="P22" s="0" t="inlineStr">
+      <c r="Q22" s="0" t="inlineStr">
         <is>
           <t>XD527</t>
         </is>
       </c>
-      <c r="Q22" s="0">
+      <c r="R22" s="0">
         <v>3978</v>
       </c>
-      <c r="R22" s="0">
+      <c r="S22" s="0">
         <v>1484</v>
       </c>
-      <c r="S22" s="0" t="inlineStr">
+      <c r="T22" s="0" t="inlineStr">
         <is>
           <t>pMU2015 (aka pZJ03)</t>
         </is>
       </c>
-      <c r="T22" s="0">
+      <c r="U22" s="0">
         <v>2489</v>
       </c>
     </row>
@@ -1771,63 +1844,66 @@
           <t>∆pta</t>
         </is>
       </c>
-      <c r="G23" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G23" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
           <t>1407910</t>
         </is>
       </c>
-      <c r="I23" s="0" t="inlineStr">
+      <c r="J23" s="0" t="inlineStr">
         <is>
           <t>1408784</t>
         </is>
       </c>
-      <c r="J23" s="0" t="inlineStr">
+      <c r="K23" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L23" s="0" t="inlineStr">
+      <c r="M23" s="0" t="inlineStr">
         <is>
           <t>pta</t>
         </is>
       </c>
-      <c r="M23" s="0" t="inlineStr">
+      <c r="N23" s="0" t="inlineStr">
         <is>
           <t>Aaron Argyros, Mascoma</t>
         </is>
       </c>
-      <c r="N23" s="0" t="inlineStr">
+      <c r="O23" s="0" t="inlineStr">
         <is>
           <t>XD508</t>
         </is>
       </c>
-      <c r="O23" s="0" t="inlineStr">
+      <c r="P23" s="0" t="inlineStr">
         <is>
           <t>XD509</t>
         </is>
       </c>
-      <c r="P23" s="0" t="inlineStr">
+      <c r="Q23" s="0" t="inlineStr">
         <is>
           <t>XD510</t>
         </is>
       </c>
-      <c r="Q23" s="0">
+      <c r="R23" s="0">
         <v>3233</v>
       </c>
-      <c r="R23" s="0">
+      <c r="S23" s="0">
         <v>2351</v>
       </c>
-      <c r="S23" s="0" t="inlineStr">
+      <c r="T23" s="0" t="inlineStr">
         <is>
           <t>pMU1817</t>
         </is>
       </c>
-      <c r="T23" s="0">
+      <c r="U23" s="0">
         <v>874</v>
       </c>
     </row>
@@ -1850,25 +1926,28 @@
           <t>∆(pta-ack)::kan</t>
         </is>
       </c>
-      <c r="G24" s="0" t="inlineStr">
+      <c r="G24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
       </c>
-      <c r="N24" s="0" t="inlineStr">
+      <c r="O24" s="0" t="inlineStr">
         <is>
           <t>XD620</t>
         </is>
       </c>
-      <c r="O24" s="0" t="inlineStr">
+      <c r="P24" s="0" t="inlineStr">
         <is>
           <t>XD621</t>
         </is>
       </c>
-      <c r="Q24" s="0">
+      <c r="R24" s="0">
         <v>5136</v>
       </c>
-      <c r="S24" s="0" t="inlineStr">
+      <c r="T24" s="0" t="inlineStr">
         <is>
           <t>pSGD8E</t>
         </is>
@@ -1898,63 +1977,66 @@
           <t>∆(pta-ack)</t>
         </is>
       </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G25" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
           <t>1407633</t>
         </is>
       </c>
-      <c r="I25" s="0" t="inlineStr">
+      <c r="J25" s="0" t="inlineStr">
         <is>
           <t>1410138</t>
         </is>
       </c>
-      <c r="J25" s="0" t="inlineStr">
+      <c r="K25" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L25" s="0" t="inlineStr">
+      <c r="M25" s="0" t="inlineStr">
         <is>
           <t>pta-ack</t>
         </is>
       </c>
-      <c r="M25" s="0" t="inlineStr">
+      <c r="N25" s="0" t="inlineStr">
         <is>
           <t>Adam Guss</t>
         </is>
       </c>
-      <c r="N25" s="0" t="inlineStr">
+      <c r="O25" s="0" t="inlineStr">
         <is>
           <t>XD505</t>
         </is>
       </c>
-      <c r="O25" s="0" t="inlineStr">
+      <c r="P25" s="0" t="inlineStr">
         <is>
           <t>XD506</t>
         </is>
       </c>
-      <c r="P25" s="0" t="inlineStr">
+      <c r="Q25" s="0" t="inlineStr">
         <is>
           <t>XD507</t>
         </is>
       </c>
-      <c r="Q25" s="0">
+      <c r="R25" s="0">
         <v>4919</v>
       </c>
-      <c r="R25" s="0">
+      <c r="S25" s="0">
         <v>2418</v>
       </c>
-      <c r="S25" s="0" t="inlineStr">
+      <c r="T25" s="0" t="inlineStr">
         <is>
           <t>AMG921</t>
         </is>
       </c>
-      <c r="T25" s="0">
+      <c r="U25" s="0">
         <v>2505</v>
       </c>
     </row>
@@ -1977,43 +2059,46 @@
           <t>∆(pta-ack)</t>
         </is>
       </c>
-      <c r="G26" s="0" t="inlineStr">
+      <c r="G26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
       </c>
-      <c r="H26" s="0" t="inlineStr">
+      <c r="I26" s="0" t="inlineStr">
         <is>
           <t>1814407</t>
         </is>
       </c>
-      <c r="I26" s="0" t="inlineStr">
+      <c r="J26" s="0" t="inlineStr">
         <is>
           <t>1816530</t>
         </is>
       </c>
-      <c r="L26" s="0" t="inlineStr">
+      <c r="M26" s="0" t="inlineStr">
         <is>
           <t>Tsac_1744-1745</t>
         </is>
       </c>
-      <c r="N26" s="0" t="inlineStr">
+      <c r="O26" s="0" t="inlineStr">
         <is>
           <t>XD620</t>
         </is>
       </c>
-      <c r="O26" s="0" t="inlineStr">
+      <c r="P26" s="0" t="inlineStr">
         <is>
           <t>XD621</t>
         </is>
       </c>
-      <c r="Q26" s="0">
+      <c r="R26" s="0">
         <v>5136</v>
       </c>
-      <c r="R26" s="0">
+      <c r="S26" s="0">
         <v>3012</v>
       </c>
-      <c r="T26" s="0">
+      <c r="U26" s="0">
         <v>2123</v>
       </c>
     </row>
@@ -2036,35 +2121,38 @@
           <t>∆pyrF</t>
         </is>
       </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
+      <c r="G27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N27" s="0" t="inlineStr">
         <is>
           <t>Shital Tripathi, Mascoma</t>
         </is>
       </c>
-      <c r="N27" s="0" t="inlineStr">
+      <c r="O27" s="0" t="inlineStr">
         <is>
           <t>XD522</t>
         </is>
       </c>
-      <c r="O27" s="0" t="inlineStr">
+      <c r="P27" s="0" t="inlineStr">
         <is>
           <t>XD523</t>
         </is>
       </c>
-      <c r="P27" s="0" t="inlineStr">
+      <c r="Q27" s="0" t="inlineStr">
         <is>
           <t>XD522</t>
         </is>
       </c>
-      <c r="Q27" s="0">
+      <c r="R27" s="0">
         <v>1502</v>
       </c>
-      <c r="S27" s="0" t="inlineStr">
+      <c r="T27" s="0" t="inlineStr">
         <is>
           <t>pMU769</t>
         </is>
@@ -2089,48 +2177,51 @@
           <t>∆pyrF</t>
         </is>
       </c>
-      <c r="G28" s="0" t="inlineStr">
+      <c r="G28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
+      <c r="I28" s="0" t="inlineStr">
         <is>
           <t>1774295</t>
         </is>
       </c>
-      <c r="I28" s="0" t="inlineStr">
+      <c r="J28" s="0" t="inlineStr">
         <is>
           <t>1775148</t>
         </is>
       </c>
-      <c r="L28" s="0" t="inlineStr">
+      <c r="M28" s="0" t="inlineStr">
         <is>
           <t>Tsac_1704</t>
         </is>
       </c>
-      <c r="M28" s="0" t="inlineStr">
+      <c r="N28" s="0" t="inlineStr">
         <is>
           <t>XD622 is X01011 from Mascoma.  XD623 is X01012 from Mascoma</t>
         </is>
       </c>
-      <c r="N28" s="0" t="inlineStr">
+      <c r="O28" s="0" t="inlineStr">
         <is>
           <t>XD622</t>
         </is>
       </c>
-      <c r="O28" s="0" t="inlineStr">
+      <c r="P28" s="0" t="inlineStr">
         <is>
           <t>XD623</t>
         </is>
       </c>
-      <c r="Q28" s="0">
+      <c r="R28" s="0">
         <v>3206</v>
       </c>
-      <c r="R28" s="0">
+      <c r="S28" s="0">
         <v>2352</v>
       </c>
-      <c r="T28" s="0">
+      <c r="U28" s="0">
         <v>853</v>
       </c>
     </row>
@@ -2158,12 +2249,15 @@
           <t>∆rnf</t>
         </is>
       </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M29" s="0" t="inlineStr">
+      <c r="G29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N29" s="0" t="inlineStr">
         <is>
           <t>Shital Tripathi, Mascoma</t>
         </is>
@@ -2188,58 +2282,61 @@
           <t>∆spo0A</t>
         </is>
       </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G30" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
           <t>1656687</t>
         </is>
       </c>
-      <c r="I30" s="0" t="inlineStr">
+      <c r="J30" s="0" t="inlineStr">
         <is>
           <t>1657428</t>
         </is>
       </c>
-      <c r="J30" s="0" t="inlineStr">
+      <c r="K30" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L30" s="0" t="inlineStr">
+      <c r="M30" s="0" t="inlineStr">
         <is>
           <t>spo0A</t>
         </is>
       </c>
-      <c r="N30" s="0" t="inlineStr">
+      <c r="O30" s="0" t="inlineStr">
         <is>
           <t>XD524</t>
         </is>
       </c>
-      <c r="O30" s="0" t="inlineStr">
+      <c r="P30" s="0" t="inlineStr">
         <is>
           <t>XD525</t>
         </is>
       </c>
-      <c r="P30" s="0" t="inlineStr">
+      <c r="Q30" s="0" t="inlineStr">
         <is>
           <t>XD526</t>
         </is>
       </c>
-      <c r="Q30" s="0">
+      <c r="R30" s="0">
         <v>4499</v>
       </c>
-      <c r="R30" s="0">
+      <c r="S30" s="0">
         <v>3719</v>
       </c>
-      <c r="S30" s="0" t="inlineStr">
+      <c r="T30" s="0" t="inlineStr">
         <is>
           <t>pMU1655</t>
         </is>
       </c>
-      <c r="T30" s="0">
+      <c r="U30" s="0">
         <v>741</v>
       </c>
     </row>
@@ -2267,42 +2364,45 @@
           <t>ΔrnfDG</t>
         </is>
       </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G31" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
           <t>70867</t>
         </is>
       </c>
-      <c r="I31" s="0" t="inlineStr">
+      <c r="J31" s="0" t="inlineStr">
         <is>
           <t>72410</t>
         </is>
       </c>
-      <c r="J31" s="0" t="inlineStr">
+      <c r="K31" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L31" s="0" t="inlineStr">
+      <c r="M31" s="0" t="inlineStr">
         <is>
           <t>rnfD-rnfG</t>
         </is>
       </c>
-      <c r="M31" s="0" t="inlineStr">
+      <c r="N31" s="0" t="inlineStr">
         <is>
           <t>Jon Lo</t>
         </is>
       </c>
-      <c r="S31" s="0" t="inlineStr">
+      <c r="T31" s="0" t="inlineStr">
         <is>
           <t>pJLo17</t>
         </is>
       </c>
-      <c r="T31" s="0">
+      <c r="U31" s="0">
         <v>1543</v>
       </c>
     </row>
@@ -2325,7 +2425,10 @@
           <t>ΔadhE::(pta-ack kan)</t>
         </is>
       </c>
-      <c r="G32" s="0" t="inlineStr">
+      <c r="G32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
@@ -2355,12 +2458,15 @@
           <t>Δppdk</t>
         </is>
       </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M33" s="0" t="inlineStr">
+      <c r="G33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N33" s="0" t="inlineStr">
         <is>
           <t>Made by Aaron Argyros at Mascoma, strain M1631</t>
         </is>
@@ -2385,7 +2491,10 @@
           <t>ΔnfnAB::kan</t>
         </is>
       </c>
-      <c r="G34" s="0" t="inlineStr">
+      <c r="G34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
@@ -2410,12 +2519,15 @@
           <t>Δxyl</t>
         </is>
       </c>
-      <c r="G35" s="0" t="inlineStr">
+      <c r="G35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
         <is>
           <t>NC_017992.1</t>
         </is>
       </c>
-      <c r="M35" s="0" t="inlineStr">
+      <c r="N35" s="0" t="inlineStr">
         <is>
           <t>Deletion of several genes in xylose utilization operon, see Kara Podkaminer paper for details</t>
         </is>
@@ -2445,58 +2557,61 @@
           <t>Δpeps</t>
         </is>
       </c>
-      <c r="G36" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G36" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
           <t>1174943</t>
         </is>
       </c>
-      <c r="I36" s="0" t="inlineStr">
+      <c r="J36" s="0" t="inlineStr">
         <is>
           <t>1177552</t>
         </is>
       </c>
-      <c r="J36" s="0" t="inlineStr">
+      <c r="K36" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L36" s="0" t="inlineStr">
+      <c r="M36" s="0" t="inlineStr">
         <is>
           <t>peps</t>
         </is>
       </c>
-      <c r="M36" s="0" t="inlineStr">
+      <c r="N36" s="0" t="inlineStr">
         <is>
           <t>Jilai Zhou</t>
         </is>
       </c>
-      <c r="N36" s="0" t="inlineStr">
+      <c r="O36" s="0" t="inlineStr">
         <is>
           <t>JP37</t>
         </is>
       </c>
-      <c r="O36" s="0" t="inlineStr">
+      <c r="P36" s="0" t="inlineStr">
         <is>
           <t>JP38</t>
         </is>
       </c>
-      <c r="Q36" s="0">
+      <c r="R36" s="0">
         <v>4162</v>
       </c>
-      <c r="R36" s="0">
+      <c r="S36" s="0">
         <v>1552</v>
       </c>
-      <c r="S36" s="0" t="inlineStr">
+      <c r="T36" s="0" t="inlineStr">
         <is>
           <t>pZJ08</t>
         </is>
       </c>
-      <c r="T36" s="0">
+      <c r="U36" s="0">
         <v>2609</v>
       </c>
     </row>
@@ -2524,58 +2639,61 @@
           <t>∆me::cat-hpt</t>
         </is>
       </c>
-      <c r="G37" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G37" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
           <t>2196850</t>
         </is>
       </c>
-      <c r="I37" s="0" t="inlineStr">
+      <c r="J37" s="0" t="inlineStr">
         <is>
           <t>2197028</t>
         </is>
       </c>
-      <c r="J37" s="0" t="inlineStr">
+      <c r="K37" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K37" s="0" t="inlineStr">
+      <c r="L37" s="0" t="inlineStr">
         <is>
           <t>pYD14_mero_region</t>
         </is>
       </c>
-      <c r="M37" s="0" t="inlineStr">
+      <c r="N37" s="0" t="inlineStr">
         <is>
           <t>Jilai Zhou</t>
         </is>
       </c>
-      <c r="N37" s="0" t="inlineStr">
+      <c r="O37" s="0" t="inlineStr">
         <is>
           <t>XD493</t>
         </is>
       </c>
-      <c r="O37" s="0" t="inlineStr">
+      <c r="P37" s="0" t="inlineStr">
         <is>
           <t>XD494</t>
         </is>
       </c>
-      <c r="P37" s="0" t="inlineStr">
+      <c r="Q37" s="0" t="inlineStr">
         <is>
           <t>XD501</t>
         </is>
       </c>
-      <c r="Q37" s="0">
+      <c r="R37" s="0">
         <v>2865</v>
       </c>
-      <c r="R37" s="0">
+      <c r="S37" s="0">
         <v>2108</v>
       </c>
-      <c r="T37" s="0">
+      <c r="U37" s="0">
         <v>178</v>
       </c>
     </row>
@@ -2598,12 +2716,15 @@
           <t>Δpfl::erm</t>
         </is>
       </c>
-      <c r="M38" s="0" t="inlineStr">
+      <c r="G38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" s="0" t="inlineStr">
         <is>
           <t>Jilai's pfl deletion in T. sacch</t>
         </is>
       </c>
-      <c r="S38" s="0" t="inlineStr">
+      <c r="T38" s="0" t="inlineStr">
         <is>
           <t>pZJ20</t>
         </is>
@@ -2628,12 +2749,15 @@
           <t>Δpfor2::(pta ack kan)</t>
         </is>
       </c>
-      <c r="M39" s="0" t="inlineStr">
+      <c r="G39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" s="0" t="inlineStr">
         <is>
           <t>Tsac_1067 pfor disruption with kan-pta-ack cassette</t>
         </is>
       </c>
-      <c r="S39" s="0" t="inlineStr">
+      <c r="T39" s="0" t="inlineStr">
         <is>
           <t>pZJ15</t>
         </is>
@@ -2658,12 +2782,15 @@
           <t>Δpfor3::(pta ack kan)</t>
         </is>
       </c>
-      <c r="M40" s="0" t="inlineStr">
+      <c r="G40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="0" t="inlineStr">
         <is>
           <t>Tsac_380 pfor disruption with kan-pta-ack cassette</t>
         </is>
       </c>
-      <c r="S40" s="0" t="inlineStr">
+      <c r="T40" s="0" t="inlineStr">
         <is>
           <t>pZJ16</t>
         </is>
@@ -2688,12 +2815,15 @@
           <t>Δpfor3::(pta ack kan)</t>
         </is>
       </c>
-      <c r="M41" s="0" t="inlineStr">
+      <c r="G41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="inlineStr">
         <is>
           <t>Tsac_2177 pfor disruption with kan-pta-ack cassette</t>
         </is>
       </c>
-      <c r="S41" s="0" t="inlineStr">
+      <c r="T41" s="0" t="inlineStr">
         <is>
           <t>pZJ17</t>
         </is>
@@ -2718,7 +2848,10 @@
           <t>Δor795::metE-ure</t>
         </is>
       </c>
-      <c r="M42" s="0" t="inlineStr">
+      <c r="G42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" s="0" t="inlineStr">
         <is>
           <t>disruption of or795 with metE gene and urease operon from C. thermocellum</t>
         </is>
@@ -2743,7 +2876,10 @@
           <t>ure</t>
         </is>
       </c>
-      <c r="M43" s="0" t="inlineStr">
+      <c r="G43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="inlineStr">
         <is>
           <t>Urease from C. thermocellum</t>
         </is>
@@ -2768,7 +2904,10 @@
           <t>metE</t>
         </is>
       </c>
-      <c r="M44" s="0" t="inlineStr">
+      <c r="G44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" s="0" t="inlineStr">
         <is>
           <t>B12-independent methionine synthetase</t>
         </is>
@@ -2793,7 +2932,10 @@
           <t>Δeps</t>
         </is>
       </c>
-      <c r="M45" s="0" t="inlineStr">
+      <c r="G45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" s="0" t="inlineStr">
         <is>
           <t>Deletion of operon thought to be important for exopolysaccharide production</t>
         </is>
@@ -2818,12 +2960,15 @@
           <t>∆(pta-ack)::(ca_adhE kan)</t>
         </is>
       </c>
-      <c r="M46" s="0" t="inlineStr">
+      <c r="G46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" s="0" t="inlineStr">
         <is>
           <t>Insertion of adhE from Clostridium acetobutylicum into T. sacch pta-ack locus</t>
         </is>
       </c>
-      <c r="S46" s="0" t="inlineStr">
+      <c r="T46" s="0" t="inlineStr">
         <is>
           <t>pASHadhE</t>
         </is>
@@ -2853,42 +2998,45 @@
           <t>∆hpt::nfnAB(Tsc)</t>
         </is>
       </c>
-      <c r="G47" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G47" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I47" s="0" t="inlineStr">
+        <is>
           <t>3435261</t>
         </is>
       </c>
-      <c r="I47" s="0" t="inlineStr">
+      <c r="J47" s="0" t="inlineStr">
         <is>
           <t>3435740</t>
         </is>
       </c>
-      <c r="J47" s="0" t="inlineStr">
+      <c r="K47" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K47" s="0" t="inlineStr">
+      <c r="L47" s="0" t="inlineStr">
         <is>
           <t>pSH023_plasmid_region</t>
         </is>
       </c>
-      <c r="M47" s="0" t="inlineStr">
+      <c r="N47" s="0" t="inlineStr">
         <is>
           <t>Shuen Hon</t>
         </is>
       </c>
-      <c r="S47" s="0" t="inlineStr">
+      <c r="T47" s="0" t="inlineStr">
         <is>
           <t>pSH023</t>
         </is>
       </c>
-      <c r="T47" s="0">
+      <c r="U47" s="0">
         <v>479</v>
       </c>
     </row>
@@ -2911,12 +3059,15 @@
           <t>Δech::erm</t>
         </is>
       </c>
-      <c r="M48" s="0" t="inlineStr">
+      <c r="G48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" s="0" t="inlineStr">
         <is>
           <t>Deletion of ech hydrogenase by Joe Shaw</t>
         </is>
       </c>
-      <c r="S48" s="0" t="inlineStr">
+      <c r="T48" s="0" t="inlineStr">
         <is>
           <t>pHKO9</t>
         </is>
@@ -2941,12 +3092,15 @@
           <t>Δhfs::kan</t>
         </is>
       </c>
-      <c r="M49" s="0" t="inlineStr">
+      <c r="G49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" s="0" t="inlineStr">
         <is>
           <t>Deletion of hfsABCD hydrogenase operon by Joe Shaw</t>
         </is>
       </c>
-      <c r="S49" s="0" t="inlineStr">
+      <c r="T49" s="0" t="inlineStr">
         <is>
           <t>pHKO10</t>
         </is>
@@ -2981,42 +3135,45 @@
           <t>ldh4</t>
         </is>
       </c>
-      <c r="G50" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G50" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
           <t>1381151</t>
         </is>
       </c>
-      <c r="I50" s="0" t="inlineStr">
+      <c r="J50" s="0" t="inlineStr">
         <is>
           <t>1381151</t>
         </is>
       </c>
-      <c r="J50" s="0" t="inlineStr">
+      <c r="K50" s="0" t="inlineStr">
         <is>
           <t>SNV</t>
         </is>
       </c>
-      <c r="K50" s="0" t="inlineStr">
+      <c r="L50" s="0" t="inlineStr">
         <is>
           <t>G --&gt; T, Ser161Arg</t>
         </is>
       </c>
-      <c r="L50" s="0" t="inlineStr">
+      <c r="M50" s="0" t="inlineStr">
         <is>
           <t>ldh</t>
         </is>
       </c>
-      <c r="M50" s="0" t="inlineStr">
+      <c r="N50" s="0" t="inlineStr">
         <is>
           <t>spontaneous point mutation in ldh in strain LL1111 that de-regulates lactate production</t>
         </is>
       </c>
-      <c r="T50" s="0">
+      <c r="U50" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3039,6 +3196,9 @@
           <t>ΔadhA::kan</t>
         </is>
       </c>
+      <c r="G51" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="0">
@@ -3059,6 +3219,9 @@
           <t>ΔadhB::kan</t>
         </is>
       </c>
+      <c r="G52" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0">
@@ -3079,6 +3242,9 @@
           <t>ΔadhE::kan</t>
         </is>
       </c>
+      <c r="G53" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0">
@@ -3099,6 +3265,9 @@
           <t>ΔadhB::cat</t>
         </is>
       </c>
+      <c r="G54" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0">
@@ -3119,6 +3288,9 @@
           <t>ΔadhA::cat</t>
         </is>
       </c>
+      <c r="G55" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0">
@@ -3139,6 +3311,9 @@
           <t>ΔadhE::cat</t>
         </is>
       </c>
+      <c r="G56" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0">
@@ -3159,7 +3334,10 @@
           <t>xynA::nfnAB erm</t>
         </is>
       </c>
-      <c r="M57" s="0" t="inlineStr">
+      <c r="G57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" s="0" t="inlineStr">
         <is>
           <t>Insertion of nfnAB under control of xylose-inducible promoter</t>
         </is>
@@ -3189,17 +3367,20 @@
           <t>Δpfor</t>
         </is>
       </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M58" s="0" t="inlineStr">
+      <c r="G58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N58" s="0" t="inlineStr">
         <is>
           <t>Deletion of C. therm pfor Clo1313_0673</t>
         </is>
       </c>
-      <c r="S58" s="0" t="inlineStr">
+      <c r="T58" s="0" t="inlineStr">
         <is>
           <t>pJLo26A</t>
         </is>
@@ -3229,42 +3410,45 @@
           <t>Δpfor</t>
         </is>
       </c>
-      <c r="G59" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G59" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I59" s="0" t="inlineStr">
+        <is>
           <t>764385</t>
         </is>
       </c>
-      <c r="I59" s="0" t="inlineStr">
+      <c r="J59" s="0" t="inlineStr">
         <is>
           <t>766227</t>
         </is>
       </c>
-      <c r="J59" s="0" t="inlineStr">
+      <c r="K59" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L59" s="0" t="inlineStr">
+      <c r="M59" s="0" t="inlineStr">
         <is>
           <t>pfor-3</t>
         </is>
       </c>
-      <c r="M59" s="0" t="inlineStr">
+      <c r="N59" s="0" t="inlineStr">
         <is>
           <t>Deletion of C. therm pfor Clo1313_0673</t>
         </is>
       </c>
-      <c r="S59" s="0" t="inlineStr">
+      <c r="T59" s="0" t="inlineStr">
         <is>
           <t>pJLo28B</t>
         </is>
       </c>
-      <c r="T59" s="0">
+      <c r="U59" s="0">
         <v>1842</v>
       </c>
     </row>
@@ -3292,42 +3476,45 @@
           <t>Δppdk::repB Pcbp-tdk</t>
         </is>
       </c>
-      <c r="G60" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G60" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I60" s="0" t="inlineStr">
+        <is>
           <t>1104800</t>
         </is>
       </c>
-      <c r="I60" s="0" t="inlineStr">
+      <c r="J60" s="0" t="inlineStr">
         <is>
           <t>1105154</t>
         </is>
       </c>
-      <c r="J60" s="0" t="inlineStr">
+      <c r="K60" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K60" s="0" t="inlineStr">
+      <c r="L60" s="0" t="inlineStr">
         <is>
           <t>pZJ03_backbone_region</t>
         </is>
       </c>
-      <c r="M60" s="0" t="inlineStr">
+      <c r="N60" s="0" t="inlineStr">
         <is>
           <t>Partial deletion of ppdk using pZJ03, 355 bp removed</t>
         </is>
       </c>
-      <c r="S60" s="0" t="inlineStr">
+      <c r="T60" s="0" t="inlineStr">
         <is>
           <t>pZJ03</t>
         </is>
       </c>
-      <c r="T60" s="0">
+      <c r="U60" s="0">
         <v>354</v>
       </c>
     </row>
@@ -3355,17 +3542,20 @@
           <t>Δpeps</t>
         </is>
       </c>
-      <c r="G61" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M61" s="0" t="inlineStr">
+      <c r="G61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N61" s="0" t="inlineStr">
         <is>
           <t>peps deletion</t>
         </is>
       </c>
-      <c r="S61" s="0" t="inlineStr">
+      <c r="T61" s="0" t="inlineStr">
         <is>
           <t>pZJ08</t>
         </is>
@@ -3395,17 +3585,20 @@
           <t>Δmdh</t>
         </is>
       </c>
-      <c r="G62" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M62" s="0" t="inlineStr">
+      <c r="G62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N62" s="0" t="inlineStr">
         <is>
           <t>mdh deletion, start to stop codon</t>
         </is>
       </c>
-      <c r="S62" s="0" t="inlineStr">
+      <c r="T62" s="0" t="inlineStr">
         <is>
           <t>pPL100_Dmdh</t>
         </is>
@@ -3430,12 +3623,15 @@
           <t>Δhpt</t>
         </is>
       </c>
-      <c r="G63" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M63" s="0" t="inlineStr">
+      <c r="G63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N63" s="0" t="inlineStr">
         <is>
           <t>hpt deletion strain that Paul Lin used (origin unknown, but I don't think it's based on LL345)</t>
         </is>
@@ -3460,7 +3656,10 @@
           <t>ΔhfsA::kan</t>
         </is>
       </c>
-      <c r="M64" s="0" t="inlineStr">
+      <c r="G64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" s="0" t="inlineStr">
         <is>
           <t>Deletion of hfsA by replacement with kan marker</t>
         </is>
@@ -3485,7 +3684,10 @@
           <t>ΔhfsB::kan</t>
         </is>
       </c>
-      <c r="M65" s="0" t="inlineStr">
+      <c r="G65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" s="0" t="inlineStr">
         <is>
           <t>Deletion of hfsB by replacement with kan marker</t>
         </is>
@@ -3510,7 +3712,10 @@
           <t>ΔhfsC::kan</t>
         </is>
       </c>
-      <c r="M66" s="0" t="inlineStr">
+      <c r="G66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" s="0" t="inlineStr">
         <is>
           <t>Deletion of hfsC by replacement with kan marker</t>
         </is>
@@ -3535,7 +3740,10 @@
           <t>ΔhfsD::kan</t>
         </is>
       </c>
-      <c r="M67" s="0" t="inlineStr">
+      <c r="G67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" s="0" t="inlineStr">
         <is>
           <t>Deletion of hfsD by replacement with kan marker</t>
         </is>
@@ -3565,42 +3773,45 @@
           <t>P0966-rnf</t>
         </is>
       </c>
-      <c r="G68" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G68" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H68" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I68" s="0" t="inlineStr">
+        <is>
           <t>69547</t>
         </is>
       </c>
-      <c r="I68" s="0" t="inlineStr">
+      <c r="J68" s="0" t="inlineStr">
         <is>
           <t>69546</t>
         </is>
       </c>
-      <c r="J68" s="0" t="inlineStr">
+      <c r="K68" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K68" s="0" t="inlineStr">
+      <c r="L68" s="0" t="inlineStr">
         <is>
           <t>P0966_bad</t>
         </is>
       </c>
-      <c r="M68" s="0" t="inlineStr">
+      <c r="N68" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0966 promoter driving rnf</t>
         </is>
       </c>
-      <c r="S68" s="0" t="inlineStr">
+      <c r="T68" s="0" t="inlineStr">
         <is>
           <t>pSM01</t>
         </is>
       </c>
-      <c r="T68" s="0">
+      <c r="U68" s="0">
         <v>-1</v>
       </c>
     </row>
@@ -3628,42 +3839,45 @@
           <t>P2638-rnf</t>
         </is>
       </c>
-      <c r="G69" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G69" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I69" s="0" t="inlineStr">
+        <is>
           <t>69547</t>
         </is>
       </c>
-      <c r="I69" s="0" t="inlineStr">
+      <c r="J69" s="0" t="inlineStr">
         <is>
           <t>69546</t>
         </is>
       </c>
-      <c r="J69" s="0" t="inlineStr">
+      <c r="K69" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K69" s="0" t="inlineStr">
+      <c r="L69" s="0" t="inlineStr">
         <is>
           <t>P2638</t>
         </is>
       </c>
-      <c r="M69" s="0" t="inlineStr">
+      <c r="N69" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2638 promoter driving rnf</t>
         </is>
       </c>
-      <c r="S69" s="0" t="inlineStr">
+      <c r="T69" s="0" t="inlineStr">
         <is>
           <t>pSM03</t>
         </is>
       </c>
-      <c r="T69" s="0">
+      <c r="U69" s="0">
         <v>-1</v>
       </c>
     </row>
@@ -3691,42 +3905,45 @@
           <t>P0815-rnf</t>
         </is>
       </c>
-      <c r="G70" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G70" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I70" s="0" t="inlineStr">
+        <is>
           <t>69549</t>
         </is>
       </c>
-      <c r="I70" s="0" t="inlineStr">
+      <c r="J70" s="0" t="inlineStr">
         <is>
           <t>69546</t>
         </is>
       </c>
-      <c r="J70" s="0" t="inlineStr">
+      <c r="K70" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K70" s="0" t="inlineStr">
+      <c r="L70" s="0" t="inlineStr">
         <is>
           <t>P0815</t>
         </is>
       </c>
-      <c r="M70" s="0" t="inlineStr">
+      <c r="N70" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0815 promoter driving rnf</t>
         </is>
       </c>
-      <c r="S70" s="0" t="inlineStr">
+      <c r="T70" s="0" t="inlineStr">
         <is>
           <t>pSM04</t>
         </is>
       </c>
-      <c r="T70" s="0">
+      <c r="U70" s="0">
         <v>-3</v>
       </c>
     </row>
@@ -3754,42 +3971,45 @@
           <t>Δrnf</t>
         </is>
       </c>
-      <c r="G71" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G71" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="inlineStr">
+        <is>
           <t>69552</t>
         </is>
       </c>
-      <c r="I71" s="0" t="inlineStr">
+      <c r="J71" s="0" t="inlineStr">
         <is>
           <t>74503</t>
         </is>
       </c>
-      <c r="J71" s="0" t="inlineStr">
+      <c r="K71" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L71" s="0" t="inlineStr">
+      <c r="M71" s="0" t="inlineStr">
         <is>
           <t>rnfC-rnfB</t>
         </is>
       </c>
-      <c r="M71" s="0" t="inlineStr">
+      <c r="N71" s="0" t="inlineStr">
         <is>
           <t>Complete deletion of the rnf operon</t>
         </is>
       </c>
-      <c r="S71" s="0" t="inlineStr">
+      <c r="T71" s="0" t="inlineStr">
         <is>
           <t>pJLO21</t>
         </is>
       </c>
-      <c r="T71" s="0">
+      <c r="U71" s="0">
         <v>4951</v>
       </c>
     </row>
@@ -3817,17 +4037,14 @@
           <t>[adapted]</t>
         </is>
       </c>
-      <c r="G72" s="0" t="inlineStr"/>
-      <c r="H72" s="0" t="inlineStr"/>
-      <c r="I72" s="0" t="inlineStr"/>
-      <c r="J72" s="0" t="inlineStr"/>
-      <c r="L72" s="0" t="inlineStr"/>
-      <c r="M72" s="0" t="inlineStr">
+      <c r="G72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" s="0" t="inlineStr">
         <is>
           <t>This allele is a marker that a strain was adapted or evolved</t>
         </is>
       </c>
-      <c r="T72" s="0"/>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="0">
@@ -3848,7 +4065,10 @@
           <t>pyrF::pyrF</t>
         </is>
       </c>
-      <c r="M73" s="0" t="inlineStr">
+      <c r="G73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" s="0" t="inlineStr">
         <is>
           <t>pyrF deletion restored to wild type by insertion of the original gene onto the chromosome</t>
         </is>
@@ -3873,7 +4093,10 @@
           <t>[adapted]</t>
         </is>
       </c>
-      <c r="M74" s="0" t="inlineStr">
+      <c r="G74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" s="0" t="inlineStr">
         <is>
           <t>This is a marker to indicate the strain was evolved or adapted from its parent strain</t>
         </is>
@@ -3898,37 +4121,40 @@
           <t>ΔreIII</t>
         </is>
       </c>
-      <c r="G75" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G75" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
           <t>521074</t>
         </is>
       </c>
-      <c r="I75" s="0" t="inlineStr">
+      <c r="J75" s="0" t="inlineStr">
         <is>
           <t>523326</t>
         </is>
       </c>
-      <c r="J75" s="0" t="inlineStr">
+      <c r="K75" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L75" s="0" t="inlineStr">
+      <c r="M75" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0478</t>
         </is>
       </c>
-      <c r="M75" s="0" t="inlineStr">
+      <c r="N75" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0478 deletion, type III restriction enzyme.  Made by Beth Papanek from Adam Guss lab</t>
         </is>
       </c>
-      <c r="T75" s="0">
+      <c r="U75" s="0">
         <v>2252</v>
       </c>
     </row>
@@ -3951,12 +4177,15 @@
           <t>Δadh0218::kan</t>
         </is>
       </c>
-      <c r="M76" s="0" t="inlineStr">
+      <c r="G76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="0" t="inlineStr">
         <is>
           <t>Deletion of Tsac_0218 originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S76" s="0" t="inlineStr">
+      <c r="T76" s="0" t="inlineStr">
         <is>
           <t>pTZvec001</t>
         </is>
@@ -3981,12 +4210,15 @@
           <t>Δadh0285::kan</t>
         </is>
       </c>
-      <c r="M77" s="0" t="inlineStr">
+      <c r="G77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="0" t="inlineStr">
         <is>
           <t>Deletion of Tsac_0285 originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S77" s="0" t="inlineStr">
+      <c r="T77" s="0" t="inlineStr">
         <is>
           <t>pTZvec002</t>
         </is>
@@ -4011,12 +4243,15 @@
           <t>Δadh2222::kan</t>
         </is>
       </c>
-      <c r="M78" s="0" t="inlineStr">
+      <c r="G78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N78" s="0" t="inlineStr">
         <is>
           <t>Deletion of Tsac_2222 originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S78" s="0" t="inlineStr">
+      <c r="T78" s="0" t="inlineStr">
         <is>
           <t>pTZvec003</t>
         </is>
@@ -4041,12 +4276,15 @@
           <t>Δadh1049::kan</t>
         </is>
       </c>
-      <c r="M79" s="0" t="inlineStr">
+      <c r="G79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N79" s="0" t="inlineStr">
         <is>
           <t>Deletion of Tsac_1049 originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S79" s="0" t="inlineStr">
+      <c r="T79" s="0" t="inlineStr">
         <is>
           <t>pTZvec005</t>
         </is>
@@ -4071,12 +4309,15 @@
           <t>ΔadhA::kan</t>
         </is>
       </c>
-      <c r="M80" s="0" t="inlineStr">
+      <c r="G80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" s="0" t="inlineStr">
         <is>
           <t>Deletion of Tsac_2087 originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S80" s="0" t="inlineStr">
+      <c r="T80" s="0" t="inlineStr">
         <is>
           <t>pTZvec004</t>
         </is>
@@ -4101,12 +4342,15 @@
           <t>Δaldh0219::kan</t>
         </is>
       </c>
-      <c r="M81" s="0" t="inlineStr">
+      <c r="G81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N81" s="0" t="inlineStr">
         <is>
           <t>Deletion of Tsac_0219 originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S81" s="0" t="inlineStr">
+      <c r="T81" s="0" t="inlineStr">
         <is>
           <t>pTZvec006</t>
         </is>
@@ -4136,22 +4380,25 @@
           <t>Δtdk</t>
         </is>
       </c>
-      <c r="M82" s="0" t="inlineStr">
+      <c r="G82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N82" s="0" t="inlineStr">
         <is>
           <t>Deletion of the tdk gene originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="N82" s="0" t="inlineStr">
+      <c r="O82" s="0" t="inlineStr">
         <is>
           <t>LT1</t>
         </is>
       </c>
-      <c r="O82" s="0" t="inlineStr">
+      <c r="P82" s="0" t="inlineStr">
         <is>
           <t>LT4</t>
         </is>
       </c>
-      <c r="S82" s="0" t="inlineStr">
+      <c r="T82" s="0" t="inlineStr">
         <is>
           <t>pTZvec007</t>
         </is>
@@ -4176,12 +4423,15 @@
           <t>Δadh0218</t>
         </is>
       </c>
-      <c r="M83" s="0" t="inlineStr">
+      <c r="G83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" s="0" t="inlineStr">
         <is>
           <t>adh0218 clean deletion originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S83" s="0" t="inlineStr">
+      <c r="T83" s="0" t="inlineStr">
         <is>
           <t>pTZvec008, pTZvec009</t>
         </is>
@@ -4206,12 +4456,15 @@
           <t>ΔadhE</t>
         </is>
       </c>
-      <c r="M84" s="0" t="inlineStr">
+      <c r="G84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="0" t="inlineStr">
         <is>
           <t>adhE clean deletion originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S84" s="0" t="inlineStr">
+      <c r="T84" s="0" t="inlineStr">
         <is>
           <t>pTZvec010</t>
         </is>
@@ -4236,12 +4489,15 @@
           <t>Δadh2222</t>
         </is>
       </c>
-      <c r="M85" s="0" t="inlineStr">
+      <c r="G85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="0" t="inlineStr">
         <is>
           <t>adh2222 clean deletion originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S85" s="0" t="inlineStr">
+      <c r="T85" s="0" t="inlineStr">
         <is>
           <t>pTZeco012</t>
         </is>
@@ -4266,12 +4522,15 @@
           <t>Δadh1049</t>
         </is>
       </c>
-      <c r="M86" s="0" t="inlineStr">
+      <c r="G86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N86" s="0" t="inlineStr">
         <is>
           <t>adh1049 clean deletion originally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S86" s="0" t="inlineStr">
+      <c r="T86" s="0" t="inlineStr">
         <is>
           <t>pTZeco013</t>
         </is>
@@ -4296,12 +4555,15 @@
           <t>Δadh0285</t>
         </is>
       </c>
-      <c r="M87" s="0" t="inlineStr">
+      <c r="G87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N87" s="0" t="inlineStr">
         <is>
           <t>adh0285 clean deletionoriginally by Tianyong Zheng</t>
         </is>
       </c>
-      <c r="S87" s="0" t="inlineStr">
+      <c r="T87" s="0" t="inlineStr">
         <is>
           <t>pTZeco014</t>
         </is>
@@ -4331,42 +4593,45 @@
           <t>gapDH::adhE-cat</t>
         </is>
       </c>
-      <c r="G88" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G88" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="H88" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="inlineStr">
+        <is>
           <t>2463774</t>
         </is>
       </c>
-      <c r="I88" s="0" t="inlineStr">
+      <c r="J88" s="0" t="inlineStr">
         <is>
           <t>2463461</t>
         </is>
       </c>
-      <c r="J88" s="0" t="inlineStr">
+      <c r="K88" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K88" s="0" t="inlineStr">
+      <c r="L88" s="0" t="inlineStr">
         <is>
           <t>pSH007_plasmid_region</t>
         </is>
       </c>
-      <c r="M88" s="0" t="inlineStr">
+      <c r="N88" s="0" t="inlineStr">
         <is>
           <t>C. therm wt adhE inserted at gapDH by recombination of gapDH promoter</t>
         </is>
       </c>
-      <c r="S88" s="0" t="inlineStr">
+      <c r="T88" s="0" t="inlineStr">
         <is>
           <t>pSH007</t>
         </is>
       </c>
-      <c r="T88" s="0">
+      <c r="U88" s="0">
         <v>-313</v>
       </c>
     </row>
@@ -4394,42 +4659,45 @@
           <t>pDGO113(pEno-adhE)</t>
         </is>
       </c>
-      <c r="G89" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G89" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H89" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="inlineStr">
+        <is>
           <t>2456439</t>
         </is>
       </c>
-      <c r="I89" s="0" t="inlineStr">
+      <c r="J89" s="0" t="inlineStr">
         <is>
           <t>2456253</t>
         </is>
       </c>
-      <c r="J89" s="0" t="inlineStr">
+      <c r="K89" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K89" s="0" t="inlineStr">
+      <c r="L89" s="0" t="inlineStr">
         <is>
           <t>pDGO113_plasmid_region</t>
         </is>
       </c>
-      <c r="M89" s="0" t="inlineStr">
+      <c r="N89" s="0" t="inlineStr">
         <is>
           <t>C. therm wt adhE under control of enolase promoter</t>
         </is>
       </c>
-      <c r="S89" s="0" t="inlineStr">
+      <c r="T89" s="0" t="inlineStr">
         <is>
           <t>pDGO113</t>
         </is>
       </c>
-      <c r="T89" s="0">
+      <c r="U89" s="0">
         <v>-186</v>
       </c>
     </row>
@@ -4457,17 +4725,20 @@
           <t>∆hpt::P0966-nfnAB(Tsc)</t>
         </is>
       </c>
-      <c r="G90" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M90" s="0" t="inlineStr">
+      <c r="G90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N90" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0966 promoter inserted upstream of nfnAB</t>
         </is>
       </c>
-      <c r="S90" s="0" t="inlineStr">
+      <c r="T90" s="0" t="inlineStr">
         <is>
           <t>pSH41</t>
         </is>
@@ -4497,12 +4768,15 @@
           <t>∆hpt::PEno-nfnAB(Tsc)</t>
         </is>
       </c>
-      <c r="G91" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M91" s="0" t="inlineStr">
+      <c r="G91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N91" s="0" t="inlineStr">
         <is>
           <t>Enolase promoter inserted upstream of nfnAB</t>
         </is>
@@ -4532,12 +4806,15 @@
           <t>∆hpt::P2638-nfnAB(Tsc)</t>
         </is>
       </c>
-      <c r="G92" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M92" s="0" t="inlineStr">
+      <c r="G92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N92" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2638 promoter inserted upstream of nfnAB</t>
         </is>
@@ -4567,12 +4844,15 @@
           <t>∆hpt::P0815-nfnAB(Tsc)</t>
         </is>
       </c>
-      <c r="G93" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M93" s="0" t="inlineStr">
+      <c r="G93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N93" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0815 promoter inserted upstream of nfnAB</t>
         </is>
@@ -4602,47 +4882,50 @@
           <t>P2638::adhA(Tsc) nfnAB(Tsc) adhEG544D(Tsc)</t>
         </is>
       </c>
-      <c r="G94" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G94" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="inlineStr">
+        <is>
           <t>3106750</t>
         </is>
       </c>
-      <c r="I94" s="0" t="inlineStr">
+      <c r="J94" s="0" t="inlineStr">
         <is>
           <t>3106745</t>
         </is>
       </c>
-      <c r="J94" s="0" t="inlineStr">
+      <c r="K94" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K94" s="0" t="inlineStr">
+      <c r="L94" s="0" t="inlineStr">
         <is>
           <t>pSH074_region</t>
         </is>
       </c>
-      <c r="L94" s="0" t="inlineStr">
+      <c r="M94" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2638</t>
         </is>
       </c>
-      <c r="M94" s="0" t="inlineStr">
+      <c r="N94" s="0" t="inlineStr">
         <is>
           <t>T sacch ethanol production pathway integrated downstream of the C. therm 2638 promoter</t>
         </is>
       </c>
-      <c r="S94" s="0" t="inlineStr">
+      <c r="T94" s="0" t="inlineStr">
         <is>
           <t>pSH74</t>
         </is>
       </c>
-      <c r="T94" s="0">
+      <c r="U94" s="0">
         <v>-5</v>
       </c>
     </row>
@@ -4665,42 +4948,45 @@
           <t>ΔphoP</t>
         </is>
       </c>
-      <c r="G95" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G95" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H95" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
           <t>990316</t>
         </is>
       </c>
-      <c r="I95" s="0" t="inlineStr">
+      <c r="J95" s="0" t="inlineStr">
         <is>
           <t>991034</t>
         </is>
       </c>
-      <c r="J95" s="0" t="inlineStr">
+      <c r="K95" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L95" s="0" t="inlineStr">
+      <c r="M95" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0855</t>
         </is>
       </c>
-      <c r="M95" s="0" t="inlineStr">
+      <c r="N95" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0855 deletion.  This was a gene that Shuen found based on resequencing data from strain LL1295</t>
         </is>
       </c>
-      <c r="S95" s="0" t="inlineStr">
+      <c r="T95" s="0" t="inlineStr">
         <is>
           <t>pSH78</t>
         </is>
       </c>
-      <c r="T95" s="0">
+      <c r="U95" s="0">
         <v>718</v>
       </c>
     </row>
@@ -4723,12 +5009,15 @@
           <t>ΔphoR</t>
         </is>
       </c>
-      <c r="G96" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M96" s="0" t="inlineStr">
+      <c r="G96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N96" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0856 deletion.</t>
         </is>
@@ -4753,7 +5042,10 @@
           <t>ΔhfsB::kan</t>
         </is>
       </c>
-      <c r="M97" s="0" t="inlineStr">
+      <c r="G97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" s="0" t="inlineStr">
         <is>
           <t>hfsB replacement with Kan in T. thermosacch</t>
         </is>
@@ -4778,7 +5070,10 @@
           <t>ΔhfsB::kan</t>
         </is>
       </c>
-      <c r="M98" s="0" t="inlineStr">
+      <c r="G98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N98" s="0" t="inlineStr">
         <is>
           <t>hfsB replaced with Kan in T. xylanolyticum</t>
         </is>
@@ -4803,7 +5098,10 @@
           <t>ΔhfsB::kan</t>
         </is>
       </c>
-      <c r="M99" s="0" t="inlineStr">
+      <c r="G99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" s="0" t="inlineStr">
         <is>
           <t>hfsB replaced by kan in T. mathranii</t>
         </is>
@@ -4828,7 +5126,10 @@
           <t>ΔhfsAB::kan</t>
         </is>
       </c>
-      <c r="M100" s="0" t="inlineStr">
+      <c r="G100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" s="0" t="inlineStr">
         <is>
           <t>deletion of hfsA and B subunits in T. sacch, Aysenur</t>
         </is>
@@ -4853,7 +5154,10 @@
           <t>ΔhfsCD::kan</t>
         </is>
       </c>
-      <c r="M101" s="0" t="inlineStr">
+      <c r="G101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" s="0" t="inlineStr">
         <is>
           <t>deletion of hfsC and D subunits in T. sacch, Aysenur</t>
         </is>
@@ -4878,7 +5182,10 @@
           <t>ΔxynA::0705-erm</t>
         </is>
       </c>
-      <c r="M102" s="0" t="inlineStr">
+      <c r="G102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N102" s="0" t="inlineStr">
         <is>
           <t>overexpression of Tsac_0705 (putative FNOR) under control of xynA xylose inducible promoter</t>
         </is>
@@ -4903,7 +5210,10 @@
           <t>ΔxynA::1705-erm</t>
         </is>
       </c>
-      <c r="M103" s="0" t="inlineStr">
+      <c r="G103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N103" s="0" t="inlineStr">
         <is>
           <t>overexpression of Tsac_0705 (putative FNOR) under control of xynA xylose inducible promoter</t>
         </is>
@@ -4933,42 +5243,45 @@
           <t>Δadh0076</t>
         </is>
       </c>
-      <c r="G104" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G104" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H104" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
           <t>81606</t>
         </is>
       </c>
-      <c r="I104" s="0" t="inlineStr">
+      <c r="J104" s="0" t="inlineStr">
         <is>
           <t>82645</t>
         </is>
       </c>
-      <c r="J104" s="0" t="inlineStr">
+      <c r="K104" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L104" s="0" t="inlineStr">
+      <c r="M104" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0076</t>
         </is>
       </c>
-      <c r="M104" s="0" t="inlineStr">
+      <c r="N104" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0076 deletion</t>
         </is>
       </c>
-      <c r="S104" s="0" t="inlineStr">
+      <c r="T104" s="0" t="inlineStr">
         <is>
           <t>pLL1143</t>
         </is>
       </c>
-      <c r="T104" s="0">
+      <c r="U104" s="0">
         <v>1039</v>
       </c>
     </row>
@@ -4996,42 +5309,45 @@
           <t>Δadh2130</t>
         </is>
       </c>
-      <c r="G105" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G105" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H105" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I105" s="0" t="inlineStr">
+        <is>
           <t>2501825</t>
         </is>
       </c>
-      <c r="I105" s="0" t="inlineStr">
+      <c r="J105" s="0" t="inlineStr">
         <is>
           <t>2502994</t>
         </is>
       </c>
-      <c r="J105" s="0" t="inlineStr">
+      <c r="K105" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L105" s="0" t="inlineStr">
+      <c r="M105" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2130</t>
         </is>
       </c>
-      <c r="M105" s="0" t="inlineStr">
+      <c r="N105" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2130 deletion</t>
         </is>
       </c>
-      <c r="S105" s="0" t="inlineStr">
+      <c r="T105" s="0" t="inlineStr">
         <is>
           <t>pLL1145</t>
         </is>
       </c>
-      <c r="T105" s="0">
+      <c r="U105" s="0">
         <v>1169</v>
       </c>
     </row>
@@ -5054,42 +5370,45 @@
           <t>Δadh1827</t>
         </is>
       </c>
-      <c r="G106" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G106" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H106" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="inlineStr">
+        <is>
           <t>2139043</t>
         </is>
       </c>
-      <c r="I106" s="0" t="inlineStr">
+      <c r="J106" s="0" t="inlineStr">
         <is>
           <t>2140207</t>
         </is>
       </c>
-      <c r="J106" s="0" t="inlineStr">
+      <c r="K106" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L106" s="0" t="inlineStr">
+      <c r="M106" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1827</t>
         </is>
       </c>
-      <c r="M106" s="0" t="inlineStr">
+      <c r="N106" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1827 deletion</t>
         </is>
       </c>
-      <c r="S106" s="0" t="inlineStr">
+      <c r="T106" s="0" t="inlineStr">
         <is>
           <t>pDGO149</t>
         </is>
       </c>
-      <c r="T106" s="0">
+      <c r="U106" s="0">
         <v>1164</v>
       </c>
     </row>
@@ -5112,42 +5431,45 @@
           <t>Δadh1833</t>
         </is>
       </c>
-      <c r="G107" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G107" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H107" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="inlineStr">
+        <is>
           <t>2146460</t>
         </is>
       </c>
-      <c r="I107" s="0" t="inlineStr">
+      <c r="J107" s="0" t="inlineStr">
         <is>
           <t>2147484</t>
         </is>
       </c>
-      <c r="J107" s="0" t="inlineStr">
+      <c r="K107" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L107" s="0" t="inlineStr">
+      <c r="M107" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1833</t>
         </is>
       </c>
-      <c r="M107" s="0" t="inlineStr">
+      <c r="N107" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1833 deletion</t>
         </is>
       </c>
-      <c r="S107" s="0" t="inlineStr">
+      <c r="T107" s="0" t="inlineStr">
         <is>
           <t>pDGO147</t>
         </is>
       </c>
-      <c r="T107" s="0">
+      <c r="U107" s="0">
         <v>1024</v>
       </c>
     </row>
@@ -5170,12 +5492,10 @@
           <t>[repurified]</t>
         </is>
       </c>
-      <c r="G108" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M108" s="0" t="inlineStr">
+      <c r="G108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" s="0" t="inlineStr">
         <is>
           <t>re-purified from single colony</t>
         </is>
@@ -5205,17 +5525,20 @@
           <t>pSH007(PgapDH-adhE)</t>
         </is>
       </c>
-      <c r="G109" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M109" s="0" t="inlineStr">
+      <c r="G109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>pSH007</t>
+        </is>
+      </c>
+      <c r="N109" s="0" t="inlineStr">
         <is>
           <t>Replicating plasmid, C. therm adhE driven by the gapDH promoter</t>
         </is>
       </c>
-      <c r="S109" s="0" t="inlineStr">
+      <c r="T109" s="0" t="inlineStr">
         <is>
           <t>pSH007</t>
         </is>
@@ -5240,47 +5563,50 @@
           <t>∆pta::cat-hpt</t>
         </is>
       </c>
-      <c r="G110" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G110" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H110" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I110" s="0" t="inlineStr">
+        <is>
           <t>1408560</t>
         </is>
       </c>
-      <c r="I110" s="0" t="inlineStr">
+      <c r="J110" s="0" t="inlineStr">
         <is>
           <t>1408784</t>
         </is>
       </c>
-      <c r="J110" s="0" t="inlineStr">
+      <c r="K110" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K110" s="0" t="inlineStr">
+      <c r="L110" s="0" t="inlineStr">
         <is>
           <t>pMU1817_mero_region</t>
         </is>
       </c>
-      <c r="L110" s="0" t="inlineStr">
+      <c r="M110" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1184-pta</t>
         </is>
       </c>
-      <c r="M110" s="0" t="inlineStr">
+      <c r="N110" s="0" t="inlineStr">
         <is>
           <t>pta deletion that is still merodiploid</t>
         </is>
       </c>
-      <c r="S110" s="0" t="inlineStr">
+      <c r="T110" s="0" t="inlineStr">
         <is>
           <t>pMU1817</t>
         </is>
       </c>
-      <c r="T110" s="0">
+      <c r="U110" s="0">
         <v>224</v>
       </c>
     </row>
@@ -5303,42 +5629,45 @@
           <t>Δldh</t>
         </is>
       </c>
-      <c r="G111" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G111" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H111" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I111" s="0" t="inlineStr">
+        <is>
           <t>1380680</t>
         </is>
       </c>
-      <c r="I111" s="0" t="inlineStr">
+      <c r="J111" s="0" t="inlineStr">
         <is>
           <t>1381632</t>
         </is>
       </c>
-      <c r="J111" s="0" t="inlineStr">
+      <c r="K111" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L111" s="0" t="inlineStr">
+      <c r="M111" s="0" t="inlineStr">
         <is>
           <t>ldh</t>
         </is>
       </c>
-      <c r="M111" s="0" t="inlineStr">
+      <c r="N111" s="0" t="inlineStr">
         <is>
           <t>Tsac pyk at ldh removed with pDGO134</t>
         </is>
       </c>
-      <c r="S111" s="0" t="inlineStr">
+      <c r="T111" s="0" t="inlineStr">
         <is>
           <t>pDGO134</t>
         </is>
       </c>
-      <c r="T111" s="0">
+      <c r="U111" s="0">
         <v>952</v>
       </c>
     </row>
@@ -5361,42 +5690,45 @@
           <t>pSH64(P2638-nfnAB(Tsc)-adhA(Tsc))</t>
         </is>
       </c>
-      <c r="G112" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G112" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H112" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I112" s="0" t="inlineStr">
+        <is>
           <t>3106959</t>
         </is>
       </c>
-      <c r="I112" s="0" t="inlineStr">
+      <c r="J112" s="0" t="inlineStr">
         <is>
           <t>3106746</t>
         </is>
       </c>
-      <c r="J112" s="0" t="inlineStr">
+      <c r="K112" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K112" s="0" t="inlineStr">
+      <c r="L112" s="0" t="inlineStr">
         <is>
           <t>pSH064_plasmid_region</t>
         </is>
       </c>
-      <c r="M112" s="0" t="inlineStr">
+      <c r="N112" s="0" t="inlineStr">
         <is>
           <t>nfnAB and adhA on a plasmid</t>
         </is>
       </c>
-      <c r="S112" s="0" t="inlineStr">
+      <c r="T112" s="0" t="inlineStr">
         <is>
           <t>pSH64</t>
         </is>
       </c>
-      <c r="T112" s="0">
+      <c r="U112" s="0">
         <v>-213</v>
       </c>
     </row>
@@ -5419,17 +5751,20 @@
           <t>pLT14(P2638-tsac_1705)</t>
         </is>
       </c>
-      <c r="G113" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M113" s="0" t="inlineStr">
+      <c r="G113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N113" s="0" t="inlineStr">
         <is>
           <t>Tsac_1705 expressed from P2638 promoter</t>
         </is>
       </c>
-      <c r="S113" s="0" t="inlineStr">
+      <c r="T113" s="0" t="inlineStr">
         <is>
           <t>pLT14</t>
         </is>
@@ -5454,37 +5789,40 @@
           <t>ΔagrD</t>
         </is>
       </c>
-      <c r="G114" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G114" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H114" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I114" s="0" t="inlineStr">
+        <is>
           <t>3311550</t>
         </is>
       </c>
-      <c r="I114" s="0" t="inlineStr">
+      <c r="J114" s="0" t="inlineStr">
         <is>
           <t>3311672</t>
         </is>
       </c>
-      <c r="J114" s="0" t="inlineStr">
+      <c r="K114" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L114" s="0" t="inlineStr">
+      <c r="M114" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2818</t>
         </is>
       </c>
-      <c r="M114" s="0" t="inlineStr">
+      <c r="N114" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2818, agrD</t>
         </is>
       </c>
-      <c r="T114" s="0">
+      <c r="U114" s="0">
         <v>122</v>
       </c>
     </row>
@@ -5507,7 +5845,10 @@
           <t>Δrex::kan</t>
         </is>
       </c>
-      <c r="M115" s="0" t="inlineStr">
+      <c r="G115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N115" s="0" t="inlineStr">
         <is>
           <t>deletion of rex redox regulator and replacement with kan marker</t>
         </is>
@@ -5532,37 +5873,40 @@
           <t>Δkor::cat</t>
         </is>
       </c>
-      <c r="G116" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G116" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H116" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I116" s="0" t="inlineStr">
+        <is>
           <t>1597399</t>
         </is>
       </c>
-      <c r="I116" s="0" t="inlineStr">
+      <c r="J116" s="0" t="inlineStr">
         <is>
           <t>1599556</t>
         </is>
       </c>
-      <c r="J116" s="0" t="inlineStr">
+      <c r="K116" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K116" s="0" t="inlineStr">
+      <c r="L116" s="0" t="inlineStr">
         <is>
           <t>kor_plasmid_region</t>
         </is>
       </c>
-      <c r="M116" s="0" t="inlineStr">
+      <c r="N116" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1353-1355 deletion</t>
         </is>
       </c>
-      <c r="T116" s="0">
+      <c r="U116" s="0">
         <v>2157</v>
       </c>
     </row>
@@ -5585,7 +5929,10 @@
           <t>ΔadhE::adhE(cth)</t>
         </is>
       </c>
-      <c r="M117" s="0" t="inlineStr">
+      <c r="G117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N117" s="0" t="inlineStr">
         <is>
           <t>deletion of native T. sacch adhE and replacement with C. thermocellum adhE</t>
         </is>
@@ -5610,7 +5957,10 @@
           <t>ΔnfnAB::nfnAB(cth)</t>
         </is>
       </c>
-      <c r="M118" s="0" t="inlineStr">
+      <c r="G118" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" s="0" t="inlineStr">
         <is>
           <t>Deletion of T. sacch nfnAB and replacement with C. therm nfnAB</t>
         </is>
@@ -5635,12 +5985,15 @@
           <t>pDGO144</t>
         </is>
       </c>
-      <c r="G119" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M119" s="0" t="inlineStr">
+      <c r="G119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
+        <is>
+          <t>pDGO144</t>
+        </is>
+      </c>
+      <c r="N119" s="0" t="inlineStr">
         <is>
           <t>C. therm expression plasmid (empty vector control)</t>
         </is>
@@ -5665,12 +6018,15 @@
           <t>pDGO144(P2638-nfnAB)</t>
         </is>
       </c>
-      <c r="G120" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M120" s="0" t="inlineStr">
+      <c r="G120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="0" t="inlineStr">
+        <is>
+          <t>pDGO144</t>
+        </is>
+      </c>
+      <c r="N120" s="0" t="inlineStr">
         <is>
           <t>pDGO144 expressing Cth nfnAB under control of the Clo1313_2638 promoter</t>
         </is>
@@ -5695,12 +6051,15 @@
           <t>P2638::adhA(Tsc)-nfnAB(Tsc)</t>
         </is>
       </c>
-      <c r="G121" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M121" s="0" t="inlineStr">
+      <c r="G121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N121" s="0" t="inlineStr">
         <is>
           <t>adhA and nfnAB from T. sacch inserted between the P2638 promoter and CDS</t>
         </is>
@@ -5725,12 +6084,15 @@
           <t>Ptsc0046-pforA(Tsc)-ferredoxin(Tsc)</t>
         </is>
       </c>
-      <c r="G122" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M122" s="0" t="inlineStr">
+      <c r="G122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N122" s="0" t="inlineStr">
         <is>
           <t>T. saccharolyticum pforA (Tsac_0046) and ferredoxin (Tsac_2084) driven by Tsac_0046 promoter, integrated downstream of clo1313_2637</t>
         </is>
@@ -5755,12 +6117,15 @@
           <t>pDGO143(adhA(Tsc)-pdc4(Zpa))</t>
         </is>
       </c>
-      <c r="G123" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M123" s="0" t="inlineStr">
+      <c r="G123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
+        <is>
+          <t>pLT51</t>
+        </is>
+      </c>
+      <c r="N123" s="0" t="inlineStr">
         <is>
           <t>pDGO143 C. therm expression plasmid with adhA from T. sacch and pdc from Z. palmae</t>
         </is>
@@ -5785,12 +6150,15 @@
           <t>pDGO143(adhA(Tsc)-pdc7(Gox))</t>
         </is>
       </c>
-      <c r="G124" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M124" s="0" t="inlineStr">
+      <c r="G124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="0" t="inlineStr">
+        <is>
+          <t>pLT54</t>
+        </is>
+      </c>
+      <c r="N124" s="0" t="inlineStr">
         <is>
           <t>pDGO143 C. therm expression plasmid with adhA from T. sacch and pdc from G. oxydans</t>
         </is>
@@ -5815,12 +6183,15 @@
           <t>pDGO143(adhA(Tsc)-pdc8(Apa))</t>
         </is>
       </c>
-      <c r="G125" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M125" s="0" t="inlineStr">
+      <c r="G125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
+        <is>
+          <t>pLT55</t>
+        </is>
+      </c>
+      <c r="N125" s="0" t="inlineStr">
         <is>
           <t>pDGO143 C. therm expression plasmid with adhA from T. sacch and pdc from Acetobacter pasteurianus</t>
         </is>
@@ -5845,12 +6216,15 @@
           <t>Clo1313_2274::pDGO-63</t>
         </is>
       </c>
-      <c r="G126" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M126" s="0" t="inlineStr">
+      <c r="G126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N126" s="0" t="inlineStr">
         <is>
           <t>plasmid pDGO-63 integrated at Clo1313_2274, failed attempt to delete restriction enzyme.</t>
         </is>
@@ -5875,37 +6249,40 @@
           <t>Δals</t>
         </is>
       </c>
-      <c r="G127" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G127" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H127" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I127" s="0" t="inlineStr">
+        <is>
           <t>113506</t>
         </is>
       </c>
-      <c r="I127" s="0" t="inlineStr">
+      <c r="J127" s="0" t="inlineStr">
         <is>
           <t>115134</t>
         </is>
       </c>
-      <c r="J127" s="0" t="inlineStr">
+      <c r="K127" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L127" s="0" t="inlineStr">
+      <c r="M127" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0099</t>
         </is>
       </c>
-      <c r="M127" s="0" t="inlineStr">
+      <c r="N127" s="0" t="inlineStr">
         <is>
           <t>Deletion of Clo1313_0099, acetolactate synthase</t>
         </is>
       </c>
-      <c r="T127" s="0">
+      <c r="U127" s="0">
         <v>1628</v>
       </c>
     </row>
@@ -5928,17 +6305,20 @@
           <t>ppdk::pZJ03</t>
         </is>
       </c>
-      <c r="G128" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M128" s="0" t="inlineStr">
+      <c r="G128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="N128" s="0" t="inlineStr">
         <is>
           <t>plasmid pZJ03 integrated at ppdk locus, ppdk still intact</t>
         </is>
       </c>
-      <c r="S128" s="0" t="inlineStr">
+      <c r="T128" s="0" t="inlineStr">
         <is>
           <t>pZJ03</t>
         </is>
@@ -5963,12 +6343,15 @@
           <t>pDGO75</t>
         </is>
       </c>
-      <c r="G129" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M129" s="0" t="inlineStr">
+      <c r="G129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="0" t="inlineStr">
+        <is>
+          <t>pDGO75</t>
+        </is>
+      </c>
+      <c r="N129" s="0" t="inlineStr">
         <is>
           <t>Plasmid pDGO75 is present</t>
         </is>
@@ -5993,17 +6376,20 @@
           <t>pDGO134</t>
         </is>
       </c>
-      <c r="G130" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
-      </c>
-      <c r="M130" s="0" t="inlineStr">
+      <c r="G130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="0" t="inlineStr">
+        <is>
+          <t>pDGO134</t>
+        </is>
+      </c>
+      <c r="N130" s="0" t="inlineStr">
         <is>
           <t>Plasmid pDGO134 still in strain</t>
         </is>
       </c>
-      <c r="S130" s="0" t="inlineStr">
+      <c r="T130" s="0" t="inlineStr">
         <is>
           <t>pDGO134</t>
         </is>
@@ -6028,42 +6414,45 @@
           <t>pSH62(P2638-adhE(Tsc)-nfnAB(Tsc)-adhA(Tsc))</t>
         </is>
       </c>
-      <c r="G131" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G131" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H131" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I131" s="0" t="inlineStr">
+        <is>
           <t>3106959</t>
         </is>
       </c>
-      <c r="I131" s="0" t="inlineStr">
+      <c r="J131" s="0" t="inlineStr">
         <is>
           <t>3106746</t>
         </is>
       </c>
-      <c r="J131" s="0" t="inlineStr">
+      <c r="K131" s="0" t="inlineStr">
         <is>
           <t>Insertion</t>
         </is>
       </c>
-      <c r="K131" s="0" t="inlineStr">
+      <c r="L131" s="0" t="inlineStr">
         <is>
           <t>pSH062_plasmid_region</t>
         </is>
       </c>
-      <c r="M131" s="0" t="inlineStr">
+      <c r="N131" s="0" t="inlineStr">
         <is>
           <t>Expression plasmid with T. sacch adhE-nfnAB-adhA</t>
         </is>
       </c>
-      <c r="S131" s="0" t="inlineStr">
+      <c r="T131" s="0" t="inlineStr">
         <is>
           <t>pSH062</t>
         </is>
       </c>
-      <c r="T131" s="0">
+      <c r="U131" s="0">
         <v>-213</v>
       </c>
     </row>
@@ -6076,37 +6465,55 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G132" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>bcaat1</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>amino acid</t>
+        </is>
+      </c>
+      <c r="F132" s="0" t="inlineStr">
+        <is>
+          <t>Δbcaat</t>
+        </is>
+      </c>
+      <c r="G132" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H132" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I132" s="0" t="inlineStr">
+        <is>
           <t>947166</t>
         </is>
       </c>
-      <c r="I132" s="0" t="inlineStr">
+      <c r="J132" s="0" t="inlineStr">
         <is>
           <t>948226</t>
         </is>
       </c>
-      <c r="J132" s="0" t="inlineStr">
+      <c r="K132" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L132" s="0" t="inlineStr">
+      <c r="M132" s="0" t="inlineStr">
         <is>
           <t>Clo1313_0820-Clo1313_0822</t>
         </is>
       </c>
-      <c r="M132" s="0" t="inlineStr">
+      <c r="N132" s="0" t="inlineStr">
         <is>
           <t>Called in AG1326 and AG2069</t>
         </is>
       </c>
-      <c r="T132" s="0">
+      <c r="U132" s="0">
         <v>1060</v>
       </c>
     </row>
@@ -6119,37 +6526,55 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G133" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>bcat1</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>amino acid</t>
+        </is>
+      </c>
+      <c r="F133" s="0" t="inlineStr">
+        <is>
+          <t>Δbcat</t>
+        </is>
+      </c>
+      <c r="G133" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H133" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I133" s="0" t="inlineStr">
+        <is>
           <t>1607726</t>
         </is>
       </c>
-      <c r="I133" s="0" t="inlineStr">
+      <c r="J133" s="0" t="inlineStr">
         <is>
           <t>1608863</t>
         </is>
       </c>
-      <c r="J133" s="0" t="inlineStr">
+      <c r="K133" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L133" s="0" t="inlineStr">
+      <c r="M133" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1364</t>
         </is>
       </c>
-      <c r="M133" s="0" t="inlineStr">
-        <is>
-          <t>Called in AG1218</t>
-        </is>
-      </c>
-      <c r="T133" s="0">
+      <c r="N133" s="0" t="inlineStr">
+        <is>
+          <t>Called in AG1218, also known as ilvE</t>
+        </is>
+      </c>
+      <c r="U133" s="0">
         <v>1137</v>
       </c>
     </row>
@@ -6162,37 +6587,55 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G134" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>lyse1</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>amino acid</t>
+        </is>
+      </c>
+      <c r="F134" s="0" t="inlineStr">
+        <is>
+          <t>ΔlysE</t>
+        </is>
+      </c>
+      <c r="G134" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H134" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I134" s="0" t="inlineStr">
+        <is>
           <t>1801183</t>
         </is>
       </c>
-      <c r="I134" s="0" t="inlineStr">
+      <c r="J134" s="0" t="inlineStr">
         <is>
           <t>1801847</t>
         </is>
       </c>
-      <c r="J134" s="0" t="inlineStr">
+      <c r="K134" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L134" s="0" t="inlineStr">
+      <c r="M134" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1543</t>
         </is>
       </c>
-      <c r="M134" s="0" t="inlineStr">
+      <c r="N134" s="0" t="inlineStr">
         <is>
           <t>Called in AG2062, 2069</t>
         </is>
       </c>
-      <c r="T134" s="0">
+      <c r="U134" s="0">
         <v>664</v>
       </c>
     </row>
@@ -6205,37 +6648,55 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G135" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>aap1</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>amino acid</t>
+        </is>
+      </c>
+      <c r="F135" s="0" t="inlineStr">
+        <is>
+          <t>Δaap</t>
+        </is>
+      </c>
+      <c r="G135" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H135" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I135" s="0" t="inlineStr">
+        <is>
           <t>1811227</t>
         </is>
       </c>
-      <c r="I135" s="0" t="inlineStr">
+      <c r="J135" s="0" t="inlineStr">
         <is>
           <t>1812322</t>
         </is>
       </c>
-      <c r="J135" s="0" t="inlineStr">
+      <c r="K135" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L135" s="0" t="inlineStr">
+      <c r="M135" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1553</t>
         </is>
       </c>
-      <c r="M135" s="0" t="inlineStr">
+      <c r="N135" s="0" t="inlineStr">
         <is>
           <t>in AG2073</t>
         </is>
       </c>
-      <c r="T135" s="0">
+      <c r="U135" s="0">
         <v>1095</v>
       </c>
     </row>
@@ -6258,37 +6719,40 @@
           <t>Δgdh</t>
         </is>
       </c>
-      <c r="G136" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G136" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H136" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I136" s="0" t="inlineStr">
+        <is>
           <t>2157435</t>
         </is>
       </c>
-      <c r="I136" s="0" t="inlineStr">
+      <c r="J136" s="0" t="inlineStr">
         <is>
           <t>2158783</t>
         </is>
       </c>
-      <c r="J136" s="0" t="inlineStr">
+      <c r="K136" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L136" s="0" t="inlineStr">
+      <c r="M136" s="0" t="inlineStr">
         <is>
           <t>gdh</t>
         </is>
       </c>
-      <c r="M136" s="0" t="inlineStr">
+      <c r="N136" s="0" t="inlineStr">
         <is>
           <t>AG1327</t>
         </is>
       </c>
-      <c r="T136" s="0">
+      <c r="U136" s="0">
         <v>1348</v>
       </c>
     </row>
@@ -6301,37 +6765,55 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G137" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>thre1</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>amino acid</t>
+        </is>
+      </c>
+      <c r="F137" s="0" t="inlineStr">
+        <is>
+          <t>ΔthrE</t>
+        </is>
+      </c>
+      <c r="G137" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H137" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I137" s="0" t="inlineStr">
+        <is>
           <t>2252705</t>
         </is>
       </c>
-      <c r="I137" s="0" t="inlineStr">
+      <c r="J137" s="0" t="inlineStr">
         <is>
           <t>2253933</t>
         </is>
       </c>
-      <c r="J137" s="0" t="inlineStr">
+      <c r="K137" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L137" s="0" t="inlineStr">
+      <c r="M137" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1925-Clo1313_1926</t>
         </is>
       </c>
-      <c r="M137" s="0" t="inlineStr">
+      <c r="N137" s="0" t="inlineStr">
         <is>
           <t>AG2071</t>
         </is>
       </c>
-      <c r="T137" s="0">
+      <c r="U137" s="0">
         <v>1228</v>
       </c>
     </row>
@@ -6354,37 +6836,40 @@
           <t>Δgs</t>
         </is>
       </c>
-      <c r="G138" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G138" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H138" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I138" s="0" t="inlineStr">
+        <is>
           <t>2395923</t>
         </is>
       </c>
-      <c r="I138" s="0" t="inlineStr">
+      <c r="J138" s="0" t="inlineStr">
         <is>
           <t>2397259</t>
         </is>
       </c>
-      <c r="J138" s="0" t="inlineStr">
+      <c r="K138" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L138" s="0" t="inlineStr">
+      <c r="M138" s="0" t="inlineStr">
         <is>
           <t>gs</t>
         </is>
       </c>
-      <c r="M138" s="0" t="inlineStr">
+      <c r="N138" s="0" t="inlineStr">
         <is>
           <t>AG1329, AG2063, AG2070</t>
         </is>
       </c>
-      <c r="T138" s="0">
+      <c r="U138" s="0">
         <v>1336</v>
       </c>
     </row>
@@ -6407,37 +6892,40 @@
           <t>Δgs-gogat</t>
         </is>
       </c>
-      <c r="G139" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G139" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H139" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I139" s="0" t="inlineStr">
+        <is>
           <t>2395923</t>
         </is>
       </c>
-      <c r="I139" s="0" t="inlineStr">
+      <c r="J139" s="0" t="inlineStr">
         <is>
           <t>2402298</t>
         </is>
       </c>
-      <c r="J139" s="0" t="inlineStr">
+      <c r="K139" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L139" s="0" t="inlineStr">
+      <c r="M139" s="0" t="inlineStr">
         <is>
           <t>gs-Clo1313_2036</t>
         </is>
       </c>
-      <c r="M139" s="0" t="inlineStr">
+      <c r="N139" s="0" t="inlineStr">
         <is>
           <t>AG2068</t>
         </is>
       </c>
-      <c r="T139" s="0">
+      <c r="U139" s="0">
         <v>6375</v>
       </c>
     </row>
@@ -6450,37 +6938,50 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G140" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>gs3</t>
+        </is>
+      </c>
+      <c r="F140" s="0" t="inlineStr">
+        <is>
+          <t>Δgogat</t>
+        </is>
+      </c>
+      <c r="G140" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H140" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I140" s="0" t="inlineStr">
+        <is>
           <t>2397278</t>
         </is>
       </c>
-      <c r="I140" s="0" t="inlineStr">
+      <c r="J140" s="0" t="inlineStr">
         <is>
           <t>2402298</t>
         </is>
       </c>
-      <c r="J140" s="0" t="inlineStr">
+      <c r="K140" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L140" s="0" t="inlineStr">
+      <c r="M140" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2032-Clo1313_2036</t>
         </is>
       </c>
-      <c r="M140" s="0" t="inlineStr">
+      <c r="N140" s="0" t="inlineStr">
         <is>
           <t>AG1328</t>
         </is>
       </c>
-      <c r="T140" s="0">
+      <c r="U140" s="0">
         <v>5020</v>
       </c>
     </row>
@@ -6493,37 +6994,50 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G141" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>re4</t>
+        </is>
+      </c>
+      <c r="F141" s="0" t="inlineStr">
+        <is>
+          <t>Δre2366</t>
+        </is>
+      </c>
+      <c r="G141" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H141" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I141" s="0" t="inlineStr">
+        <is>
           <t>2775005</t>
         </is>
       </c>
-      <c r="I141" s="0" t="inlineStr">
+      <c r="J141" s="0" t="inlineStr">
         <is>
           <t>2777608</t>
         </is>
       </c>
-      <c r="J141" s="0" t="inlineStr">
+      <c r="K141" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L141" s="0" t="inlineStr">
+      <c r="M141" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2366</t>
         </is>
       </c>
-      <c r="M141" s="0" t="inlineStr">
+      <c r="N141" s="0" t="inlineStr">
         <is>
           <t>AG930</t>
         </is>
       </c>
-      <c r="T141" s="0">
+      <c r="U141" s="0">
         <v>2603</v>
       </c>
     </row>
@@ -6536,37 +7050,55 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G142" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>aap2</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>amino acid</t>
+        </is>
+      </c>
+      <c r="F142" s="0" t="inlineStr">
+        <is>
+          <t>Δaat2721</t>
+        </is>
+      </c>
+      <c r="G142" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H142" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I142" s="0" t="inlineStr">
+        <is>
           <t>3200006</t>
         </is>
       </c>
-      <c r="I142" s="0" t="inlineStr">
+      <c r="J142" s="0" t="inlineStr">
         <is>
           <t>3201124</t>
         </is>
       </c>
-      <c r="J142" s="0" t="inlineStr">
+      <c r="K142" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L142" s="0" t="inlineStr">
+      <c r="M142" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2720-Clo1313_2722</t>
         </is>
       </c>
-      <c r="M142" s="0" t="inlineStr">
+      <c r="N142" s="0" t="inlineStr">
         <is>
           <t>AG2072</t>
         </is>
       </c>
-      <c r="T142" s="0">
+      <c r="U142" s="0">
         <v>1118</v>
       </c>
     </row>
@@ -6589,37 +7121,40 @@
           <t>Δhpt</t>
         </is>
       </c>
-      <c r="G143" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G143" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="H143" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I143" s="0" t="inlineStr">
+        <is>
           <t>3435233</t>
         </is>
       </c>
-      <c r="I143" s="0" t="inlineStr">
+      <c r="J143" s="0" t="inlineStr">
         <is>
           <t>3435840</t>
         </is>
       </c>
-      <c r="J143" s="0" t="inlineStr">
+      <c r="K143" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L143" s="0" t="inlineStr">
+      <c r="M143" s="0" t="inlineStr">
         <is>
           <t>hpt</t>
         </is>
       </c>
-      <c r="M143" s="0" t="inlineStr">
+      <c r="N143" s="0" t="inlineStr">
         <is>
           <t>in AG608-615 and AG1155</t>
         </is>
       </c>
-      <c r="T143" s="0">
+      <c r="U143" s="0">
         <v>607</v>
       </c>
     </row>
@@ -6632,37 +7167,40 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G144" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G144" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="H144" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I144" s="0" t="inlineStr">
+        <is>
           <t>3303717</t>
         </is>
       </c>
-      <c r="I144" s="0" t="inlineStr">
+      <c r="J144" s="0" t="inlineStr">
         <is>
           <t>3309806</t>
         </is>
       </c>
-      <c r="J144" s="0" t="inlineStr">
+      <c r="K144" s="0" t="inlineStr">
         <is>
           <t>Deletion</t>
         </is>
       </c>
-      <c r="L144" s="0" t="inlineStr">
+      <c r="M144" s="0" t="inlineStr">
         <is>
           <t>Clo1313_2811-Clo1313_2816</t>
         </is>
       </c>
-      <c r="M144" s="0" t="inlineStr">
+      <c r="N144" s="0" t="inlineStr">
         <is>
           <t>Spontaneous deletion, looks like it started in LL1111</t>
         </is>
       </c>
-      <c r="T144" s="0">
+      <c r="U144" s="0">
         <v>6089</v>
       </c>
     </row>
@@ -6675,38 +7213,173 @@
           <t>Clostridium thermocellum</t>
         </is>
       </c>
-      <c r="G145" s="0" t="inlineStr">
-        <is>
-          <t>NC_017304.1</t>
-        </is>
+      <c r="G145" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="H145" s="0" t="inlineStr">
         <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I145" s="0" t="inlineStr">
+        <is>
           <t>2009328</t>
         </is>
       </c>
-      <c r="I145" s="0" t="inlineStr">
+      <c r="J145" s="0" t="inlineStr">
         <is>
           <t>2047494</t>
         </is>
       </c>
-      <c r="J145" s="0" t="inlineStr">
+      <c r="K145" s="0" t="inlineStr">
         <is>
           <t>Tandem duplication</t>
         </is>
       </c>
-      <c r="L145" s="0" t="inlineStr">
+      <c r="M145" s="0" t="inlineStr">
         <is>
           <t>Clo1313_1714-Clo1313_1754</t>
         </is>
       </c>
-      <c r="M145" s="0" t="inlineStr">
+      <c r="N145" s="0" t="inlineStr">
         <is>
           <t>Called in a bunch of strains, real tandem duplication</t>
         </is>
       </c>
-      <c r="T145" s="0">
+      <c r="U145" s="0">
         <v>38166</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>147</v>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>Clostridium thermocellum</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>adhE7</t>
+        </is>
+      </c>
+      <c r="D146" s="0" t="inlineStr">
+        <is>
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="F146" s="0" t="inlineStr">
+        <is>
+          <t>adhE P704L</t>
+        </is>
+      </c>
+      <c r="G146" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I146" s="0" t="inlineStr">
+        <is>
+          <t>2096587</t>
+        </is>
+      </c>
+      <c r="J146" s="0" t="inlineStr">
+        <is>
+          <t>2096587</t>
+        </is>
+      </c>
+      <c r="K146" s="0" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="L146" s="0" t="inlineStr">
+        <is>
+          <t>G --&gt; A, Pro704Leu</t>
+        </is>
+      </c>
+      <c r="M146" s="0" t="inlineStr">
+        <is>
+          <t>adhE</t>
+        </is>
+      </c>
+      <c r="N146" s="0" t="inlineStr">
+        <is>
+          <t>half of the adhE* mutation</t>
+        </is>
+      </c>
+      <c r="U146" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>149</v>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>Clostridium thermocellum</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>ahdE8</t>
+        </is>
+      </c>
+      <c r="D147" s="0" t="inlineStr">
+        <is>
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="F147" s="0" t="inlineStr">
+        <is>
+          <t>adhE H734R</t>
+        </is>
+      </c>
+      <c r="G147" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I147" s="0" t="inlineStr">
+        <is>
+          <t>2096497</t>
+        </is>
+      </c>
+      <c r="J147" s="0" t="inlineStr">
+        <is>
+          <t>2096497</t>
+        </is>
+      </c>
+      <c r="K147" s="0" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="L147" s="0" t="inlineStr">
+        <is>
+          <t>	T --&gt; C, His734Arg</t>
+        </is>
+      </c>
+      <c r="M147" s="0" t="inlineStr">
+        <is>
+          <t>adhE</t>
+        </is>
+      </c>
+      <c r="N147" s="0" t="inlineStr">
+        <is>
+          <t>half of the adhE* mutation</t>
+        </is>
+      </c>
+      <c r="U147" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Allele.xlsx
+++ b/Allele.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Allele"/>
   </sheets>
   <definedNames>
-    <definedName name="Allele">'Allele'!$A$1:$U$147</definedName>
+    <definedName name="Allele">'Allele'!$A$1:$U$151</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U147"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>∆me::cat-hpt</t>
+          <t>∆me::PgapD-cat-hpt</t>
         </is>
       </c>
       <c r="G37" s="0" t="b">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>pSH007(PgapDH-adhE)</t>
+          <t>pSH007(PgapD-adhE)</t>
         </is>
       </c>
       <c r="G109" s="0" t="b">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>∆pta::cat-hpt</t>
+          <t>∆pta::PgapD-cat-hpt</t>
         </is>
       </c>
       <c r="G110" s="0" t="b">
@@ -5682,16 +5682,21 @@
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>tscEtoh2</t>
+          <t>tscEtoh2int</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>ethanol</t>
         </is>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>pSH64(P2638-nfnAB(Tsc)-adhA(Tsc))</t>
+          <t>P2638::pSH64(P2638-nfnAB(Tsc)-adhA(Tsc))</t>
         </is>
       </c>
       <c r="G112" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="0" t="inlineStr">
         <is>
@@ -5720,7 +5725,7 @@
       </c>
       <c r="N112" s="0" t="inlineStr">
         <is>
-          <t>nfnAB and adhA on a plasmid</t>
+          <t>pSH064 integrated in chromosome at Clo1313_2638 locus</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -6046,6 +6051,11 @@
           <t>tscEtoh3</t>
         </is>
       </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>ethanol</t>
+        </is>
+      </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
           <t>P2638::adhA(Tsc)-nfnAB(Tsc)</t>
@@ -6079,6 +6089,11 @@
           <t>tscEtoh4</t>
         </is>
       </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>ethanol</t>
+        </is>
+      </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
           <t>Ptsc0046-pforA(Tsc)-ferredoxin(Tsc)</t>
@@ -6300,6 +6315,11 @@
           <t>ppdk3</t>
         </is>
       </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>malate shunt</t>
+        </is>
+      </c>
       <c r="F128" s="0" t="inlineStr">
         <is>
           <t>ppdk::pZJ03</t>
@@ -6406,12 +6426,17 @@
       </c>
       <c r="C131" s="0" t="inlineStr">
         <is>
-          <t>tscEtoh5</t>
+          <t>tscEtoh5int</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>ethanol</t>
         </is>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
-          <t>pSH62(P2638-adhE(Tsc)-nfnAB(Tsc)-adhA(Tsc))</t>
+          <t>P2638::pSH62(P2638-adhE(Tsc)-nfnAB(Tsc)-adhA(Tsc))</t>
         </is>
       </c>
       <c r="G131" s="0" t="b">
@@ -6444,7 +6469,7 @@
       </c>
       <c r="N131" s="0" t="inlineStr">
         <is>
-          <t>Expression plasmid with T. sacch adhE-nfnAB-adhA</t>
+          <t>pSH062 integrated in chromosome at Clo1313_2638 locus</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -6477,7 +6502,7 @@
       </c>
       <c r="F132" s="0" t="inlineStr">
         <is>
-          <t>Δbcaat</t>
+          <t>ΔazlCD</t>
         </is>
       </c>
       <c r="G132" s="0" t="b">
@@ -6510,7 +6535,7 @@
       </c>
       <c r="N132" s="0" t="inlineStr">
         <is>
-          <t>Called in AG1326 and AG2069</t>
+          <t>Called in AG1326 and AG2069, also known as ilvT, bcaat, azlCD or brnEF</t>
         </is>
       </c>
       <c r="U132" s="0">
@@ -6528,7 +6553,7 @@
       </c>
       <c r="C133" s="0" t="inlineStr">
         <is>
-          <t>bcat1</t>
+          <t>ilvE1</t>
         </is>
       </c>
       <c r="D133" s="0" t="inlineStr">
@@ -6538,7 +6563,7 @@
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
-          <t>Δbcat</t>
+          <t>ΔilvE</t>
         </is>
       </c>
       <c r="G133" s="0" t="b">
@@ -6571,7 +6596,7 @@
       </c>
       <c r="N133" s="0" t="inlineStr">
         <is>
-          <t>Called in AG1218, also known as ilvE</t>
+          <t>Called in AG1218, also known as ilvE and bcat</t>
         </is>
       </c>
       <c r="U133" s="0">
@@ -7380,6 +7405,204 @@
       </c>
       <c r="U147" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>150</v>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>Clostridium thermocellum</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>ppdk4</t>
+        </is>
+      </c>
+      <c r="D148" s="0" t="inlineStr">
+        <is>
+          <t>malate shunt</t>
+        </is>
+      </c>
+      <c r="F148" s="0" t="inlineStr">
+        <is>
+          <t>Δppdk::PgapD-cat-hpt</t>
+        </is>
+      </c>
+      <c r="G148" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I148" s="0" t="inlineStr">
+        <is>
+          <t>1105704</t>
+        </is>
+      </c>
+      <c r="J148" s="0" t="inlineStr">
+        <is>
+          <t>1107289</t>
+        </is>
+      </c>
+      <c r="K148" s="0" t="inlineStr">
+        <is>
+          <t>Insertion</t>
+        </is>
+      </c>
+      <c r="L148" s="0" t="inlineStr">
+        <is>
+          <t>pZJ03_mero_region</t>
+        </is>
+      </c>
+      <c r="N148" s="0" t="inlineStr">
+        <is>
+          <t>Partial deletion of ppdk using pZJ03, 355 bp removed</t>
+        </is>
+      </c>
+      <c r="U148" s="0">
+        <v>1585</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>151</v>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>Clostridium thermocellum</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>tscEtoh2</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>pSH64(P2638-nfnAB(Tsc)-adhA(Tsc))</t>
+        </is>
+      </c>
+      <c r="G149" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="0" t="inlineStr">
+        <is>
+          <t>pSH064</t>
+        </is>
+      </c>
+      <c r="N149" s="0" t="inlineStr">
+        <is>
+          <t>Expression plasmid with T. sacch nfnAB-adhA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>152</v>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>Clostridium thermocellum</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>tscEtoh5</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="inlineStr">
+        <is>
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="F150" s="0" t="inlineStr">
+        <is>
+          <t>pSH62(P2638-adhE(Tsc)-nfnAB(Tsc)-adhA(Tsc))</t>
+        </is>
+      </c>
+      <c r="G150" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="0" t="inlineStr">
+        <is>
+          <t>pSH062</t>
+        </is>
+      </c>
+      <c r="N150" s="0" t="inlineStr">
+        <is>
+          <t>Expression plasmid with T. sacch adhE-nfnAB-adhA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0">
+        <v>153</v>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>Clostridium thermocellum</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>bcaat2</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="inlineStr">
+        <is>
+          <t>amino acid</t>
+        </is>
+      </c>
+      <c r="F151" s="0" t="inlineStr">
+        <is>
+          <t>ΔClo1313_0817-Clo1313_0826</t>
+        </is>
+      </c>
+      <c r="G151" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" s="0" t="inlineStr">
+        <is>
+          <t>NC_017304.1</t>
+        </is>
+      </c>
+      <c r="I151" s="0" t="inlineStr">
+        <is>
+          <t>941487</t>
+        </is>
+      </c>
+      <c r="J151" s="0" t="inlineStr">
+        <is>
+          <t>953492</t>
+        </is>
+      </c>
+      <c r="K151" s="0" t="inlineStr">
+        <is>
+          <t>Deletion</t>
+        </is>
+      </c>
+      <c r="M151" s="0" t="inlineStr">
+        <is>
+          <t>Clo1313_0817-Clo1313_0826</t>
+        </is>
+      </c>
+      <c r="N151" s="0" t="inlineStr">
+        <is>
+          <t>Spontaneous deletion of chromosomal region containing bcaat, probably due to recombination of flanking IS200 sequences</t>
+        </is>
+      </c>
+      <c r="U151" s="0">
+        <v>12005</v>
       </c>
     </row>
   </sheetData>
